--- a/data/395_P_features_case.xlsx
+++ b/data/395_P_features_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R98"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,5434 +528,4706 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9952335278351107</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.623506164876606</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0008937716455413339</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.007404255444072577</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.839654977800137e-07</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02069601774452471</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.026521944664029e-05</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0002019930352497428</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1240131584123253</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0001080079595826947</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-6.050994946744129e-05</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.00059417055544726</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-2.425429764224127e-06</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-7.238813787393776e-06</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-3.046556334804877e-05</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.001035548454780248</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3779.615836535582</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.005383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9953906247850016</v>
+        <v>0.9952335278351107</v>
       </c>
       <c r="B3" t="n">
-        <v>9.063361322924232</v>
+        <v>4.623506164876606</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.001922002248022334</v>
+        <v>-0.0008937716455413339</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01446105863661867</v>
+        <v>-0.007404255444072577</v>
       </c>
       <c r="E3" t="n">
-        <v>6.908459650179165e-07</v>
+        <v>-1.839654977800137e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03648525240798074</v>
+        <v>0.02069601774452471</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.193591035694014e-05</v>
+        <v>-1.026521944664029e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001014448613361116</v>
+        <v>0.0002019930352497428</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4130413096898928</v>
+        <v>0.1240131584123253</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.0002331743351375671</v>
+        <v>-0.0001080079595826947</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0001897801005523067</v>
+        <v>-6.050994946744129e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.003388868485225637</v>
+        <v>-0.00059417055544726</v>
       </c>
       <c r="M3" t="n">
-        <v>-5.046787336054256e-06</v>
+        <v>-2.425429764224127e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>-2.167514046962552e-05</v>
+        <v>-7.238813787393776e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.0002461295096527857</v>
+        <v>-3.046556334804877e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.003769926534590914</v>
+        <v>-0.001035548454780248</v>
       </c>
       <c r="Q3" t="n">
-        <v>3815.553825420699</v>
+        <v>3779.615836535582</v>
       </c>
       <c r="R3" t="n">
-        <v>0.010766</v>
+        <v>0.005383</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9956135405916754</v>
+        <v>0.9953906247850016</v>
       </c>
       <c r="B4" t="n">
-        <v>13.04252768700072</v>
+        <v>9.063361322924232</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.003237638868868568</v>
+        <v>-0.001922002248022334</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.02065471232781743</v>
+        <v>-0.01446105863661867</v>
       </c>
       <c r="E4" t="n">
-        <v>1.424906236893705e-06</v>
+        <v>6.908459650179165e-07</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04513931358215801</v>
+        <v>0.03648525240798074</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.178437016765136e-05</v>
+        <v>-1.193591035694014e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00175985078193035</v>
+        <v>0.001014448613361116</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7041843719342837</v>
+        <v>0.4130413096898928</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.0003031922821684806</v>
+        <v>-0.0002331743351375671</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0002839209033751386</v>
+        <v>-0.0001897801005523067</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.005549075217968442</v>
+        <v>-0.003388868485225637</v>
       </c>
       <c r="M4" t="n">
-        <v>-6.397184759146184e-06</v>
+        <v>-5.046787336054256e-06</v>
       </c>
       <c r="N4" t="n">
-        <v>-3.25892331332416e-05</v>
+        <v>-2.167514046962552e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.0005469824426448291</v>
+        <v>-0.0002461295096527857</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.007112470639896513</v>
+        <v>-0.003769926534590914</v>
       </c>
       <c r="Q4" t="n">
-        <v>3865.221738049055</v>
+        <v>3815.553825420699</v>
       </c>
       <c r="R4" t="n">
-        <v>0.016149</v>
+        <v>0.010766</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.995864269005848</v>
+        <v>0.9956135405916754</v>
       </c>
       <c r="B5" t="n">
-        <v>16.4106465237167</v>
+        <v>13.04252768700072</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.004434616577144727</v>
+        <v>-0.003237638868868568</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.02581363846792226</v>
+        <v>-0.02065471232781743</v>
       </c>
       <c r="E5" t="n">
-        <v>1.907805698463479e-06</v>
+        <v>1.424906236893705e-06</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04690070833333333</v>
+        <v>0.04513931358215801</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.03919349871001e-06</v>
+        <v>-1.178437016765136e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002232564954129878</v>
+        <v>0.00175985078193035</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8837097979493942</v>
+        <v>0.7041843719342837</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.0002873224298898572</v>
+        <v>-0.0003031922821684806</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0003896257399999522</v>
+        <v>-0.0002839209033751386</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.005822559393609295</v>
+        <v>-0.005549075217968442</v>
       </c>
       <c r="M5" t="n">
-        <v>-4.594575681504735e-06</v>
+        <v>-6.397184759146184e-06</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.668767740802851e-05</v>
+        <v>-3.25892331332416e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.0008416771394107453</v>
+        <v>-0.0005469824426448291</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.009980188870727108</v>
+        <v>-0.007112470639896513</v>
       </c>
       <c r="Q5" t="n">
-        <v>3919.730363500222</v>
+        <v>3865.221738049055</v>
       </c>
       <c r="R5" t="n">
-        <v>0.021532</v>
+        <v>0.016149</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9961073428362575</v>
+        <v>0.995864269005848</v>
       </c>
       <c r="B6" t="n">
-        <v>19.14426420820115</v>
+        <v>16.4106465237167</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.004311560576958506</v>
+        <v>-0.004434616577144727</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.03010989270525568</v>
+        <v>-0.02581363846792226</v>
       </c>
       <c r="E6" t="n">
-        <v>2.453241179720001e-06</v>
+        <v>1.907805698463479e-06</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04316030200091733</v>
+        <v>0.04690070833333333</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.761835630532621e-06</v>
+        <v>-9.03919349871001e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002757574350518424</v>
+        <v>0.002232564954129878</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9193410033571583</v>
+        <v>0.8837097979493942</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.0002146141639237466</v>
+        <v>-0.0002873224298898572</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0006382128413321397</v>
+        <v>-0.0003896257399999522</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.003262783728868257</v>
+        <v>-0.005822559393609295</v>
       </c>
       <c r="M6" t="n">
-        <v>2.662722564268559e-06</v>
+        <v>-4.594575681504735e-06</v>
       </c>
       <c r="N6" t="n">
-        <v>-4.039397715909833e-05</v>
+        <v>-3.668767740802851e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.001075605949931638</v>
+        <v>-0.0008416771394107453</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01167062314484832</v>
+        <v>-0.009980188870727108</v>
       </c>
       <c r="Q6" t="n">
-        <v>3971.263102021134</v>
+        <v>3919.730363500222</v>
       </c>
       <c r="R6" t="n">
-        <v>0.026915</v>
+        <v>0.021532</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9963516894564843</v>
+        <v>0.9961073428362575</v>
       </c>
       <c r="B7" t="n">
-        <v>21.50991411216858</v>
+        <v>19.14426420820115</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.004397327016706959</v>
+        <v>-0.004311560576958506</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.03373200804838099</v>
+        <v>-0.03010989270525568</v>
       </c>
       <c r="E7" t="n">
-        <v>2.463982500963192e-06</v>
+        <v>2.453241179720001e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03870383243034056</v>
+        <v>0.04316030200091733</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.721134761528208e-06</v>
+        <v>-5.761835630532621e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002966895818104456</v>
+        <v>0.002757574350518424</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8953556432270764</v>
+        <v>0.9193410033571583</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.0001872306015085713</v>
+        <v>-0.0002146141639237466</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0007936205394953432</v>
+        <v>-0.0006382128413321397</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.002822132727530883</v>
+        <v>-0.003262783728868257</v>
       </c>
       <c r="M7" t="n">
-        <v>1.121379810480609e-05</v>
+        <v>2.662722564268559e-06</v>
       </c>
       <c r="N7" t="n">
-        <v>-3.733962059572837e-05</v>
+        <v>-4.039397715909833e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.001040069095824176</v>
+        <v>-0.001075605949931638</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.0121673428341158</v>
+        <v>-0.01167062314484832</v>
       </c>
       <c r="Q7" t="n">
-        <v>4021.336536573039</v>
+        <v>3971.263102021134</v>
       </c>
       <c r="R7" t="n">
-        <v>0.032782</v>
+        <v>0.026915</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9965629649696135</v>
+        <v>0.9963516894564843</v>
       </c>
       <c r="B8" t="n">
-        <v>23.36593978933353</v>
+        <v>21.50991411216858</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.003994453024339796</v>
+        <v>-0.004397327016706959</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.03638536754819943</v>
+        <v>-0.03373200804838099</v>
       </c>
       <c r="E8" t="n">
-        <v>2.803594234684956e-06</v>
+        <v>2.463982500963192e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03338935285517716</v>
+        <v>0.03870383243034056</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.241681993742114e-06</v>
+        <v>-3.721134761528208e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003320040237202427</v>
+        <v>0.002966895818104456</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8203933324255628</v>
+        <v>0.8953556432270764</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.0002251907433876086</v>
+        <v>-0.0001872306015085713</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0008661970004249799</v>
+        <v>-0.0007936205394953432</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.001048846235869963</v>
+        <v>-0.002822132727530883</v>
       </c>
       <c r="M8" t="n">
-        <v>2.514456399311528e-05</v>
+        <v>1.121379810480609e-05</v>
       </c>
       <c r="N8" t="n">
-        <v>-3.311637489491361e-05</v>
+        <v>-3.733962059572837e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.000959538393594166</v>
+        <v>-0.001040069095824176</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.01162411153685787</v>
+        <v>-0.0121673428341158</v>
       </c>
       <c r="Q8" t="n">
-        <v>4063.715143651544</v>
+        <v>4021.336536573039</v>
       </c>
       <c r="R8" t="n">
-        <v>0.038648</v>
+        <v>0.032782</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9967443902648779</v>
+        <v>0.9965629649696135</v>
       </c>
       <c r="B9" t="n">
-        <v>24.83808463606365</v>
+        <v>23.36593978933353</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.003376807639613512</v>
+        <v>-0.003994453024339796</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.03847348631316888</v>
+        <v>-0.03638536754819943</v>
       </c>
       <c r="E9" t="n">
-        <v>2.765942405952872e-06</v>
+        <v>2.803594234684956e-06</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02855978537438367</v>
+        <v>0.03338935285517716</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.958350452944041e-06</v>
+        <v>-3.241681993742114e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003439761564360054</v>
+        <v>0.003320040237202427</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7322899291620482</v>
+        <v>0.8203933324255628</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.0002901160359789269</v>
+        <v>-0.0002251907433876086</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0009475053873373977</v>
+        <v>-0.0008661970004249799</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003089977639323662</v>
+        <v>-0.001048846235869963</v>
       </c>
       <c r="M9" t="n">
-        <v>4.326821149963691e-05</v>
+        <v>2.514456399311528e-05</v>
       </c>
       <c r="N9" t="n">
-        <v>-2.590460010360527e-05</v>
+        <v>-3.311637489491361e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.0008423956639491847</v>
+        <v>-0.000959538393594166</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.01071306468958867</v>
+        <v>-0.01162411153685787</v>
       </c>
       <c r="Q9" t="n">
-        <v>4099.342737420735</v>
+        <v>4063.715143651544</v>
       </c>
       <c r="R9" t="n">
-        <v>0.044515</v>
+        <v>0.038648</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9968994185013186</v>
+        <v>0.9967443902648779</v>
       </c>
       <c r="B10" t="n">
-        <v>26.02539191001286</v>
+        <v>24.83808463606365</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.002666061920441081</v>
+        <v>-0.003376807639613512</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0403639986298932</v>
+        <v>-0.03847348631316888</v>
       </c>
       <c r="E10" t="n">
-        <v>2.38273148589898e-06</v>
+        <v>2.765942405952872e-06</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02440967450693728</v>
+        <v>0.02855978537438367</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.621530172249454e-06</v>
+        <v>-3.958350452944041e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.003336379162228139</v>
+        <v>0.003439761564360054</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6444355391360573</v>
+        <v>0.7322899291620482</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.000332936831763846</v>
+        <v>-0.0002901160359789269</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.001055185876434596</v>
+        <v>-0.0009475053873373977</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0008588637438086668</v>
+        <v>0.0003089977639323662</v>
       </c>
       <c r="M10" t="n">
-        <v>6.673986453297596e-05</v>
+        <v>4.326821149963691e-05</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.649239475008441e-05</v>
+        <v>-2.590460010360527e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.0007287635130744435</v>
+        <v>-0.0008423956639491847</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.009717918666529704</v>
+        <v>-0.01071306468958867</v>
       </c>
       <c r="Q10" t="n">
-        <v>4129.28798217444</v>
+        <v>4099.342737420735</v>
       </c>
       <c r="R10" t="n">
-        <v>0.050382</v>
+        <v>0.044515</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9970323216947599</v>
+        <v>0.9968994185013186</v>
       </c>
       <c r="B11" t="n">
-        <v>27.0002253699563</v>
+        <v>26.02539191001286</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.002098354956892845</v>
+        <v>-0.002666061920441081</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.04238741411350237</v>
+        <v>-0.0403639986298932</v>
       </c>
       <c r="E11" t="n">
-        <v>2.560016963737817e-06</v>
+        <v>2.38273148589898e-06</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02115479820978099</v>
+        <v>0.02440967450693728</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.005451257657522e-06</v>
+        <v>-4.621530172249454e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00334966603121519</v>
+        <v>0.003336379162228139</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5766751041149079</v>
+        <v>0.6444355391360573</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.0002976345118567569</v>
+        <v>-0.000332936831763846</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.001056506988396706</v>
+        <v>-0.001055185876434596</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003490295860302598</v>
+        <v>0.0008588637438086668</v>
       </c>
       <c r="M11" t="n">
-        <v>9.785637170544995e-05</v>
+        <v>6.673986453297596e-05</v>
       </c>
       <c r="N11" t="n">
-        <v>-6.769853478182455e-06</v>
+        <v>-1.649239475008441e-05</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.0006765972165320538</v>
+        <v>-0.0007287635130744435</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.008462374856514247</v>
+        <v>-0.009717918666529704</v>
       </c>
       <c r="Q11" t="n">
-        <v>4154.752404762305</v>
+        <v>4129.28798217444</v>
       </c>
       <c r="R11" t="n">
-        <v>0.056248</v>
+        <v>0.050382</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9971571734892788</v>
+        <v>0.9970323216947599</v>
       </c>
       <c r="B12" t="n">
-        <v>27.87689509039483</v>
+        <v>27.0002253699563</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.001460473249229192</v>
+        <v>-0.002098354956892845</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.04476227082894498</v>
+        <v>-0.04238741411350237</v>
       </c>
       <c r="E12" t="n">
-        <v>2.621544619670909e-06</v>
+        <v>2.560016963737817e-06</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01813916123437679</v>
+        <v>0.02115479820978099</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.950297159012724e-07</v>
+        <v>-3.005451257657522e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.003262420545485911</v>
+        <v>0.00334966603121519</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5004720664679126</v>
+        <v>0.5766751041149079</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.0002249241476273746</v>
+        <v>-0.0002976345118567569</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.001082880333446964</v>
+        <v>-0.001056506988396706</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001271840397970496</v>
+        <v>0.003490295860302598</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0001350860931833362</v>
+        <v>9.785637170544995e-05</v>
       </c>
       <c r="N12" t="n">
-        <v>3.704888105514783e-06</v>
+        <v>-6.769853478182455e-06</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.0006098742684227646</v>
+        <v>-0.0006765972165320538</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.007364300790216622</v>
+        <v>-0.008462374856514247</v>
       </c>
       <c r="Q12" t="n">
-        <v>4178.247502181096</v>
+        <v>4154.752404762305</v>
       </c>
       <c r="R12" t="n">
-        <v>0.062625</v>
+        <v>0.056248</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9972652005217292</v>
+        <v>0.9971571734892788</v>
       </c>
       <c r="B13" t="n">
-        <v>28.60855220158239</v>
+        <v>27.87689509039483</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.000978665288305526</v>
+        <v>-0.001460473249229192</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.04739704894833193</v>
+        <v>-0.04476227082894498</v>
       </c>
       <c r="E13" t="n">
-        <v>2.97726599131665e-06</v>
+        <v>2.621544619670909e-06</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01585409409758056</v>
+        <v>0.01813916123437679</v>
       </c>
       <c r="G13" t="n">
-        <v>2.594745076252718e-06</v>
+        <v>-7.950297159012724e-07</v>
       </c>
       <c r="H13" t="n">
-        <v>0.003331610171792552</v>
+        <v>0.003262420545485911</v>
       </c>
       <c r="I13" t="n">
-        <v>0.445115577421677</v>
+        <v>0.5004720664679126</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0001166476093935136</v>
+        <v>-0.0002249241476273746</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.001053131208212457</v>
+        <v>-0.001082880333446964</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001315529840112436</v>
+        <v>0.001271840397970496</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0001808775868240295</v>
+        <v>0.0001350860931833362</v>
       </c>
       <c r="N13" t="n">
-        <v>1.341951093070367e-05</v>
+        <v>3.704888105514783e-06</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.0005744778069280185</v>
+        <v>-0.0006098742684227646</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.006183205546249551</v>
+        <v>-0.007364300790216622</v>
       </c>
       <c r="Q13" t="n">
-        <v>4198.346362875059</v>
+        <v>4178.247502181096</v>
       </c>
       <c r="R13" t="n">
-        <v>0.06900299999999999</v>
+        <v>0.062625</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9973605247391355</v>
+        <v>0.9972652005217292</v>
       </c>
       <c r="B14" t="n">
-        <v>29.23138478003287</v>
+        <v>28.60855220158239</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0006077263517260382</v>
+        <v>-0.000978665288305526</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.05013932380423848</v>
+        <v>-0.04739704894833193</v>
       </c>
       <c r="E14" t="n">
-        <v>3.120835074918444e-06</v>
+        <v>2.97726599131665e-06</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0141168709293659</v>
+        <v>0.01585409409758056</v>
       </c>
       <c r="G14" t="n">
-        <v>5.162290261122577e-06</v>
+        <v>2.594745076252718e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.003241481975572532</v>
+        <v>0.003331610171792552</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4026346094675686</v>
+        <v>0.445115577421677</v>
       </c>
       <c r="J14" t="n">
-        <v>-2.866519780876925e-05</v>
+        <v>-0.0001166476093935136</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.001073802046077794</v>
+        <v>-0.001053131208212457</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00140039325076799</v>
+        <v>0.001315529840112436</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0002281545341316936</v>
+        <v>0.0001808775868240295</v>
       </c>
       <c r="N14" t="n">
-        <v>1.866415675581132e-05</v>
+        <v>1.341951093070367e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.0005699478695955005</v>
+        <v>-0.0005744778069280185</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.005200588881144172</v>
+        <v>-0.006183205546249551</v>
       </c>
       <c r="Q14" t="n">
-        <v>4215.809811105931</v>
+        <v>4198.346362875059</v>
       </c>
       <c r="R14" t="n">
-        <v>0.07537999999999999</v>
+        <v>0.06900299999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9974459663456026</v>
+        <v>0.9973605247391355</v>
       </c>
       <c r="B15" t="n">
-        <v>29.77245652257004</v>
+        <v>29.23138478003287</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0003378852824328886</v>
+        <v>-0.0006077263517260382</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05285372603670418</v>
+        <v>-0.05013932380423848</v>
       </c>
       <c r="E15" t="n">
-        <v>3.080718843885449e-06</v>
+        <v>3.120835074918444e-06</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01272351668959982</v>
+        <v>0.0141168709293659</v>
       </c>
       <c r="G15" t="n">
-        <v>6.122429449002406e-06</v>
+        <v>5.162290261122577e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.003006473768823633</v>
+        <v>0.003241481975572532</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3676345420218119</v>
+        <v>0.4026346094675686</v>
       </c>
       <c r="J15" t="n">
-        <v>1.519194730088784e-05</v>
+        <v>-2.866519780876925e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.001146100299812171</v>
+        <v>-0.001073802046077794</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001108634315049266</v>
+        <v>0.00140039325076799</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0002666768337927687</v>
+        <v>0.0002281545341316936</v>
       </c>
       <c r="N15" t="n">
-        <v>1.820587568293009e-05</v>
+        <v>1.866415675581132e-05</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.0005833744982869413</v>
+        <v>-0.0005699478695955005</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.004423078283186617</v>
+        <v>-0.005200588881144172</v>
       </c>
       <c r="Q15" t="n">
-        <v>4231.240868843366</v>
+        <v>4215.809811105931</v>
       </c>
       <c r="R15" t="n">
-        <v>0.08175700000000001</v>
+        <v>0.07537999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9975230416523332</v>
+        <v>0.9974459663456026</v>
       </c>
       <c r="B16" t="n">
-        <v>30.24968008255934</v>
+        <v>29.77245652257004</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0001617603194321026</v>
+        <v>-0.0003378852824328886</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.05542188563175652</v>
+        <v>-0.05285372603670418</v>
       </c>
       <c r="E16" t="n">
-        <v>3.339857455196724e-06</v>
+        <v>3.080718843885449e-06</v>
       </c>
       <c r="F16" t="n">
-        <v>0.011566345166122</v>
+        <v>0.01272351668959982</v>
       </c>
       <c r="G16" t="n">
-        <v>5.64428773203689e-06</v>
+        <v>6.122429449002406e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.002919246835583235</v>
+        <v>0.003006473768823633</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3409212792955064</v>
+        <v>0.3676345420218119</v>
       </c>
       <c r="J16" t="n">
-        <v>1.686429825000943e-05</v>
+        <v>1.519194730088784e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.001172678551841313</v>
+        <v>-0.001146100299812171</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002345145416074837</v>
+        <v>0.001108634315049266</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0002834271902291324</v>
+        <v>0.0002666768337927687</v>
       </c>
       <c r="N16" t="n">
-        <v>1.309609245684108e-05</v>
+        <v>1.820587568293009e-05</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.0006040557513924323</v>
+        <v>-0.0005833744982869413</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.003650489952321583</v>
+        <v>-0.004423078283186617</v>
       </c>
       <c r="Q16" t="n">
-        <v>4245.06144731414</v>
+        <v>4231.240868843366</v>
       </c>
       <c r="R16" t="n">
-        <v>0.088134</v>
+        <v>0.08175700000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9975997966116271</v>
+        <v>0.9975230416523332</v>
       </c>
       <c r="B17" t="n">
-        <v>30.70914445017773</v>
+        <v>30.24968008255934</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.413774371488332e-05</v>
+        <v>-0.0001617603194321026</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.05804226634229931</v>
+        <v>-0.05542188563175652</v>
       </c>
       <c r="E17" t="n">
-        <v>3.760639803761036e-06</v>
+        <v>3.339857455196724e-06</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01058158805469557</v>
+        <v>0.011566345166122</v>
       </c>
       <c r="G17" t="n">
-        <v>3.5793099383815e-06</v>
+        <v>5.64428773203689e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.002738802457738266</v>
+        <v>0.002919246835583235</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3140961159366281</v>
+        <v>0.3409212792955064</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.823792595323867e-05</v>
+        <v>1.686429825000943e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.00123636937825423</v>
+        <v>-0.001172678551841313</v>
       </c>
       <c r="L17" t="n">
-        <v>0.000754039488195806</v>
+        <v>0.002345145416074837</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0002830796456747681</v>
+        <v>0.0002834271902291324</v>
       </c>
       <c r="N17" t="n">
-        <v>8.857519777214007e-07</v>
+        <v>1.309609245684108e-05</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.0005988480315873879</v>
+        <v>-0.0006040557513924323</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.003037876678251021</v>
+        <v>-0.003650489952321583</v>
       </c>
       <c r="Q17" t="n">
-        <v>4258.54834164796</v>
+        <v>4245.06144731414</v>
       </c>
       <c r="R17" t="n">
-        <v>0.09504700000000001</v>
+        <v>0.088134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9976699893934182</v>
+        <v>0.9975997966116271</v>
       </c>
       <c r="B18" t="n">
-        <v>31.12025107021366</v>
+        <v>30.70914445017773</v>
       </c>
       <c r="C18" t="n">
-        <v>6.154955353488991e-05</v>
+        <v>-2.413774371488332e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.06037843843763378</v>
+        <v>-0.05804226634229931</v>
       </c>
       <c r="E18" t="n">
-        <v>4.206568418211787e-06</v>
+        <v>3.760639803761036e-06</v>
       </c>
       <c r="F18" t="n">
-        <v>0.009773992368994379</v>
+        <v>0.01058158805469557</v>
       </c>
       <c r="G18" t="n">
-        <v>6.111076768891168e-07</v>
+        <v>3.5793099383815e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.002690605334267715</v>
+        <v>0.002738802457738266</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2940063213475773</v>
+        <v>0.3140961159366281</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0001113043610013027</v>
+        <v>-2.823792595323867e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.001273400338318666</v>
+        <v>-0.00123636937825423</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0006549313524358827</v>
+        <v>0.000754039488195806</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0002604580758084731</v>
+        <v>0.0002830796456747681</v>
       </c>
       <c r="N18" t="n">
-        <v>-1.834916576361018e-05</v>
+        <v>8.857519777214007e-07</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0005873752127612691</v>
+        <v>-0.0005988480315873879</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.002407193082202363</v>
+        <v>-0.003037876678251021</v>
       </c>
       <c r="Q18" t="n">
-        <v>4270.786277980325</v>
+        <v>4258.54834164796</v>
       </c>
       <c r="R18" t="n">
-        <v>0.10196</v>
+        <v>0.09504700000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.997735293974315</v>
+        <v>0.9976699893934182</v>
       </c>
       <c r="B19" t="n">
-        <v>31.49327247289429</v>
+        <v>31.12025107021366</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0001232937086012057</v>
+        <v>6.154955353488991e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.06212335822621402</v>
+        <v>-0.06037843843763378</v>
       </c>
       <c r="E19" t="n">
-        <v>4.457491533042369e-06</v>
+        <v>4.206568418211787e-06</v>
       </c>
       <c r="F19" t="n">
-        <v>0.009137397789817682</v>
+        <v>0.009773992368994379</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.020248439399154e-06</v>
+        <v>6.111076768891168e-07</v>
       </c>
       <c r="H19" t="n">
-        <v>0.002552989538084922</v>
+        <v>0.002690605334267715</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2784760835913312</v>
+        <v>0.2940063213475773</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.0001601594205929333</v>
+        <v>-0.0001113043610013027</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.001347004277052461</v>
+        <v>-0.001273400338318666</v>
       </c>
       <c r="L19" t="n">
-        <v>0.000678086313093365</v>
+        <v>0.0006549313524358827</v>
       </c>
       <c r="M19" t="n">
-        <v>0.000220771494162518</v>
+        <v>0.0002604580758084731</v>
       </c>
       <c r="N19" t="n">
-        <v>-3.515296480963892e-05</v>
+        <v>-1.834916576361018e-05</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.00057172323311898</v>
+        <v>-0.0005873752127612691</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.001914894345930879</v>
+        <v>-0.002407193082202363</v>
       </c>
       <c r="Q19" t="n">
-        <v>4282.034893956629</v>
+        <v>4270.786277980325</v>
       </c>
       <c r="R19" t="n">
-        <v>0.10887</v>
+        <v>0.10196</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9977964543916982</v>
+        <v>0.997735293974315</v>
       </c>
       <c r="B20" t="n">
-        <v>31.83615134764107</v>
+        <v>31.49327247289429</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0001727296248303899</v>
+        <v>0.0001232937086012057</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.06307278677965701</v>
+        <v>-0.06212335822621402</v>
       </c>
       <c r="E20" t="n">
-        <v>4.551553433032337e-06</v>
+        <v>4.457491533042369e-06</v>
       </c>
       <c r="F20" t="n">
-        <v>0.008569351345889232</v>
+        <v>0.009137397789817682</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.092814419647967e-07</v>
+        <v>-1.020248439399154e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.002339564262537083</v>
+        <v>0.002552989538084922</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2641108494502414</v>
+        <v>0.2784760835913312</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.0001480212396721197</v>
+        <v>-0.0001601594205929333</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.001451449212778495</v>
+        <v>-0.001347004277052461</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0005062106359279724</v>
+        <v>0.000678086313093365</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0001688266354242872</v>
+        <v>0.000220771494162518</v>
       </c>
       <c r="N20" t="n">
-        <v>-4.571238388691408e-05</v>
+        <v>-3.515296480963892e-05</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.0005494255144419632</v>
+        <v>-0.00057172323311898</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.001556314463942558</v>
+        <v>-0.001914894345930879</v>
       </c>
       <c r="Q20" t="n">
-        <v>4292.497062608909</v>
+        <v>4282.034893956629</v>
       </c>
       <c r="R20" t="n">
-        <v>0.11578</v>
+        <v>0.10887</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9978536178477239</v>
+        <v>0.9977964543916982</v>
       </c>
       <c r="B21" t="n">
-        <v>32.15448481236225</v>
+        <v>31.83615134764107</v>
       </c>
       <c r="C21" t="n">
-        <v>0.000207906803708441</v>
+        <v>0.0001727296248303899</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.06312556722562399</v>
+        <v>-0.06307278677965701</v>
       </c>
       <c r="E21" t="n">
-        <v>4.719530525022008e-06</v>
+        <v>4.551553433032337e-06</v>
       </c>
       <c r="F21" t="n">
-        <v>0.008052650718094254</v>
+        <v>0.008569351345889232</v>
       </c>
       <c r="G21" t="n">
-        <v>3.656173674227477e-07</v>
+        <v>-7.092814419647967e-07</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00224632834274388</v>
+        <v>0.002339564262537083</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2521003225372345</v>
+        <v>0.2641108494502414</v>
       </c>
       <c r="J21" t="n">
-        <v>-9.7832327627677e-05</v>
+        <v>-0.0001480212396721197</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.001522695243793159</v>
+        <v>-0.001451449212778495</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001410779088331841</v>
+        <v>0.0005062106359279724</v>
       </c>
       <c r="M21" t="n">
-        <v>0.000109516201146335</v>
+        <v>0.0001688266354242872</v>
       </c>
       <c r="N21" t="n">
-        <v>-5.262845279520855e-05</v>
+        <v>-4.571238388691408e-05</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.000528007931016058</v>
+        <v>-0.0005494255144419632</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.001193236585944674</v>
+        <v>-0.001556314463942558</v>
       </c>
       <c r="Q21" t="n">
-        <v>4302.309533814529</v>
+        <v>4292.497062608909</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1227</v>
+        <v>0.11578</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9979122752551313</v>
+        <v>0.9978536178477239</v>
       </c>
       <c r="B22" t="n">
-        <v>32.47475383493227</v>
+        <v>32.15448481236225</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0002351764547978065</v>
+        <v>0.000207906803708441</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.06238667844599965</v>
+        <v>-0.06312556722562399</v>
       </c>
       <c r="E22" t="n">
-        <v>5.064640218773364e-06</v>
+        <v>4.719530525022008e-06</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00758328242460727</v>
+        <v>0.008052650718094254</v>
       </c>
       <c r="G22" t="n">
-        <v>2.257552101937844e-06</v>
+        <v>3.656173674227477e-07</v>
       </c>
       <c r="H22" t="n">
-        <v>0.002087631689066581</v>
+        <v>0.00224632834274388</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2391306062792238</v>
+        <v>0.2521003225372345</v>
       </c>
       <c r="J22" t="n">
-        <v>-2.022976746454917e-05</v>
+        <v>-9.7832327627677e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.001609554845340748</v>
+        <v>-0.001522695243793159</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0003659660670995617</v>
+        <v>0.001410779088331841</v>
       </c>
       <c r="M22" t="n">
-        <v>4.747663918160506e-05</v>
+        <v>0.000109516201146335</v>
       </c>
       <c r="N22" t="n">
-        <v>-5.479823765366006e-05</v>
+        <v>-5.262845279520855e-05</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.0005252037859457774</v>
+        <v>-0.000528007931016058</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.0009438044017680662</v>
+        <v>-0.001193236585944674</v>
       </c>
       <c r="Q22" t="n">
-        <v>4312.278749338579</v>
+        <v>4302.309533814529</v>
       </c>
       <c r="R22" t="n">
-        <v>0.13017</v>
+        <v>0.1227</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9979673619711042</v>
+        <v>0.9979122752551313</v>
       </c>
       <c r="B23" t="n">
-        <v>32.77397696651759</v>
+        <v>32.47475383493227</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0002432235068560563</v>
+        <v>0.0002351764547978065</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.06095192254847812</v>
+        <v>-0.06238667844599965</v>
       </c>
       <c r="E23" t="n">
-        <v>5.258156183841589e-06</v>
+        <v>5.064640218773364e-06</v>
       </c>
       <c r="F23" t="n">
-        <v>0.007180332648205481</v>
+        <v>0.00758328242460727</v>
       </c>
       <c r="G23" t="n">
-        <v>3.489274372382752e-06</v>
+        <v>2.257552101937844e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.002037079416059328</v>
+        <v>0.002087631689066581</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2289464015658245</v>
+        <v>0.2391306062792238</v>
       </c>
       <c r="J23" t="n">
-        <v>3.950256741629418e-05</v>
+        <v>-2.022976746454917e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.001677483092990021</v>
+        <v>-0.001609554845340748</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0003611588672137816</v>
+        <v>0.0003659660670995617</v>
       </c>
       <c r="M23" t="n">
-        <v>-3.33546420223693e-06</v>
+        <v>4.747663918160506e-05</v>
       </c>
       <c r="N23" t="n">
-        <v>-5.420589500899807e-05</v>
+        <v>-5.479823765366006e-05</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.0005348542127299525</v>
+        <v>-0.0005252037859457774</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.0006557057767771758</v>
+        <v>-0.0009438044017680662</v>
       </c>
       <c r="Q23" t="n">
-        <v>4321.686363895533</v>
+        <v>4312.278749338579</v>
       </c>
       <c r="R23" t="n">
-        <v>0.13764</v>
+        <v>0.13017</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9980197577686045</v>
+        <v>0.9979673619711042</v>
       </c>
       <c r="B24" t="n">
-        <v>33.0557853489024</v>
+        <v>32.77397696651759</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0002350332877059201</v>
+        <v>0.0002432235068560563</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.05904047708884285</v>
+        <v>-0.06095192254847812</v>
       </c>
       <c r="E24" t="n">
-        <v>5.319228677320548e-06</v>
+        <v>5.258156183841589e-06</v>
       </c>
       <c r="F24" t="n">
-        <v>0.006864523866242404</v>
+        <v>0.007180332648205481</v>
       </c>
       <c r="G24" t="n">
-        <v>4.098561112194706e-06</v>
+        <v>3.489274372382752e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001941245387054715</v>
+        <v>0.002037079416059328</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2212704107422696</v>
+        <v>0.2289464015658245</v>
       </c>
       <c r="J24" t="n">
-        <v>8.1708264998519e-05</v>
+        <v>3.950256741629418e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.001760331066683867</v>
+        <v>-0.001677483092990021</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0004379765728610219</v>
+        <v>0.0003611588672137816</v>
       </c>
       <c r="M24" t="n">
-        <v>-4.015803394913618e-05</v>
+        <v>-3.33546420223693e-06</v>
       </c>
       <c r="N24" t="n">
-        <v>-5.102078563443602e-05</v>
+        <v>-5.420589500899807e-05</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.0005412882288510175</v>
+        <v>-0.0005348542127299525</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.0004508543924624707</v>
+        <v>-0.0006557057767771758</v>
       </c>
       <c r="Q24" t="n">
-        <v>4330.633927944083</v>
+        <v>4321.686363895533</v>
       </c>
       <c r="R24" t="n">
-        <v>0.14511</v>
+        <v>0.13764</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9980699508370598</v>
+        <v>0.9980197577686045</v>
       </c>
       <c r="B25" t="n">
-        <v>33.32313754156633</v>
+        <v>33.0557853489024</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0002126959350139825</v>
+        <v>0.0002350332877059201</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.05683051012192473</v>
+        <v>-0.05904047708884285</v>
       </c>
       <c r="E25" t="n">
-        <v>5.323506281810859e-06</v>
+        <v>5.319228677320548e-06</v>
       </c>
       <c r="F25" t="n">
-        <v>0.006571326636853572</v>
+        <v>0.006864523866242404</v>
       </c>
       <c r="G25" t="n">
-        <v>4.01359101224788e-06</v>
+        <v>4.098561112194706e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001805976396984689</v>
+        <v>0.001941245387054715</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2139024265342915</v>
+        <v>0.2212704107422696</v>
       </c>
       <c r="J25" t="n">
-        <v>9.991659708608993e-05</v>
+        <v>8.1708264998519e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.001851748074613958</v>
+        <v>-0.001760331066683867</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0003708022519777453</v>
+        <v>0.0004379765728610219</v>
       </c>
       <c r="M25" t="n">
-        <v>-6.400498622348354e-05</v>
+        <v>-4.015803394913618e-05</v>
       </c>
       <c r="N25" t="n">
-        <v>-4.57486692529716e-05</v>
+        <v>-5.102078563443602e-05</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.000525704618439654</v>
+        <v>-0.0005412882288510175</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.0003284802932394189</v>
+        <v>-0.0004508543924624707</v>
       </c>
       <c r="Q25" t="n">
-        <v>4339.20171615192</v>
+        <v>4330.633927944083</v>
       </c>
       <c r="R25" t="n">
-        <v>0.15258</v>
+        <v>0.14511</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9981177717578261</v>
+        <v>0.9980699508370598</v>
       </c>
       <c r="B26" t="n">
-        <v>33.5783073225229</v>
+        <v>33.32313754156633</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0001780700347847304</v>
+        <v>0.0002126959350139825</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.05445947407091874</v>
+        <v>-0.05683051012192473</v>
       </c>
       <c r="E26" t="n">
-        <v>5.361246683528983e-06</v>
+        <v>5.323506281810859e-06</v>
       </c>
       <c r="F26" t="n">
-        <v>0.006303865375960326</v>
+        <v>0.006571326636853572</v>
       </c>
       <c r="G26" t="n">
-        <v>3.101750709413197e-06</v>
+        <v>4.01359101224788e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001761545151408187</v>
+        <v>0.001805976396984689</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2078624111340442</v>
+        <v>0.2139024265342915</v>
       </c>
       <c r="J26" t="n">
-        <v>8.195478320403576e-05</v>
+        <v>9.991659708608993e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.001913616604366296</v>
+        <v>-0.001851748074613958</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001082341050405949</v>
+        <v>0.0003708022519777453</v>
       </c>
       <c r="M26" t="n">
-        <v>-7.92877947513392e-05</v>
+        <v>-6.400498622348354e-05</v>
       </c>
       <c r="N26" t="n">
-        <v>-3.889530966767596e-05</v>
+        <v>-4.57486692529716e-05</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.0004723484472145299</v>
+        <v>-0.000525704618439654</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.0001792235941731266</v>
+        <v>-0.0003284802932394189</v>
       </c>
       <c r="Q26" t="n">
-        <v>4347.446570493059</v>
+        <v>4339.20171615192</v>
       </c>
       <c r="R26" t="n">
-        <v>0.16005</v>
+        <v>0.15258</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9981676930684555</v>
+        <v>0.9981177717578261</v>
       </c>
       <c r="B27" t="n">
-        <v>33.84048103078138</v>
+        <v>33.5783073225229</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0001580246492048259</v>
+        <v>0.0001780700347847304</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.05171760906314579</v>
+        <v>-0.05445947407091874</v>
       </c>
       <c r="E27" t="n">
-        <v>5.543611730162826e-06</v>
+        <v>5.361246683528983e-06</v>
       </c>
       <c r="F27" t="n">
-        <v>0.006046302471046898</v>
+        <v>0.006303865375960326</v>
       </c>
       <c r="G27" t="n">
-        <v>2.839167263377196e-06</v>
+        <v>3.101750709413197e-06</v>
       </c>
       <c r="H27" t="n">
-        <v>0.001678247319352799</v>
+        <v>0.001761545151408187</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2009044559587968</v>
+        <v>0.2078624111340442</v>
       </c>
       <c r="J27" t="n">
-        <v>7.69086884429665e-05</v>
+        <v>8.195478320403576e-05</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.00197757891029794</v>
+        <v>-0.001913616604366296</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0003145376983109982</v>
+        <v>0.001082341050405949</v>
       </c>
       <c r="M27" t="n">
-        <v>-9.070515718290144e-05</v>
+        <v>-7.92877947513392e-05</v>
       </c>
       <c r="N27" t="n">
-        <v>-3.110900633377209e-05</v>
+        <v>-3.889530966767596e-05</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.0003513576880014078</v>
+        <v>-0.0004723484472145299</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.0001063850245120813</v>
+        <v>-0.0001792235941731266</v>
       </c>
       <c r="Q27" t="n">
-        <v>4355.988601263599</v>
+        <v>4347.446570493059</v>
       </c>
       <c r="R27" t="n">
-        <v>0.16809</v>
+        <v>0.16005</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9982153689370485</v>
+        <v>0.9981676930684555</v>
       </c>
       <c r="B28" t="n">
-        <v>34.09094041840257</v>
+        <v>33.84048103078138</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0001567312989941276</v>
+        <v>0.0001580246492048259</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.04860540023130867</v>
+        <v>-0.05171760906314579</v>
       </c>
       <c r="E28" t="n">
-        <v>5.619539190472709e-06</v>
+        <v>5.543611730162826e-06</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005815186714539618</v>
+        <v>0.006046302471046898</v>
       </c>
       <c r="G28" t="n">
-        <v>2.506321412739366e-06</v>
+        <v>2.839167263377196e-06</v>
       </c>
       <c r="H28" t="n">
-        <v>0.001669704030597066</v>
+        <v>0.001678247319352799</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1951713670864707</v>
+        <v>0.2009044559587968</v>
       </c>
       <c r="J28" t="n">
-        <v>6.411320411395236e-05</v>
+        <v>7.69086884429665e-05</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.002023216732570807</v>
+        <v>-0.00197757891029794</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0003116338812856419</v>
+        <v>0.0003145376983109982</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0001017099436766856</v>
+        <v>-9.070515718290144e-05</v>
       </c>
       <c r="N28" t="n">
-        <v>-2.455113005947489e-05</v>
+        <v>-3.110900633377209e-05</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.0002050416890146231</v>
+        <v>-0.0003513576880014078</v>
       </c>
       <c r="P28" t="n">
-        <v>1.795687142025474e-05</v>
+        <v>-0.0001063850245120813</v>
       </c>
       <c r="Q28" t="n">
-        <v>4364.217315815119</v>
+        <v>4355.988601263599</v>
       </c>
       <c r="R28" t="n">
-        <v>0.17614</v>
+        <v>0.16809</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9982614386251577</v>
+        <v>0.9982153689370485</v>
       </c>
       <c r="B29" t="n">
-        <v>34.3311628858821</v>
+        <v>34.09094041840257</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0001553194807632286</v>
+        <v>0.0001567312989941276</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.04506093239897868</v>
+        <v>-0.04860540023130867</v>
       </c>
       <c r="E29" t="n">
-        <v>5.605315991092278e-06</v>
+        <v>5.619539190472709e-06</v>
       </c>
       <c r="F29" t="n">
-        <v>0.005628130650154798</v>
+        <v>0.005815186714539618</v>
       </c>
       <c r="G29" t="n">
-        <v>2.360944817839122e-06</v>
+        <v>2.506321412739366e-06</v>
       </c>
       <c r="H29" t="n">
-        <v>0.001623898373493762</v>
+        <v>0.001669704030597066</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1907413560339666</v>
+        <v>0.1951713670864707</v>
       </c>
       <c r="J29" t="n">
-        <v>5.762548204206964e-05</v>
+        <v>6.411320411395236e-05</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.002074986368551645</v>
+        <v>-0.002023216732570807</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0003627619006399431</v>
+        <v>0.0003116338812856419</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.0001152951603109846</v>
+        <v>-0.0001017099436766856</v>
       </c>
       <c r="N29" t="n">
-        <v>-1.884428376734797e-05</v>
+        <v>-2.455113005947489e-05</v>
       </c>
       <c r="O29" t="n">
-        <v>-7.469049871630102e-05</v>
+        <v>-0.0002050416890146231</v>
       </c>
       <c r="P29" t="n">
-        <v>9.40251714667342e-05</v>
+        <v>1.795687142025474e-05</v>
       </c>
       <c r="Q29" t="n">
-        <v>4372.175843338418</v>
+        <v>4364.217315815119</v>
       </c>
       <c r="R29" t="n">
-        <v>0.18418</v>
+        <v>0.17614</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9983059735122118</v>
+        <v>0.9982614386251577</v>
       </c>
       <c r="B30" t="n">
-        <v>34.56260704525474</v>
+        <v>34.3311628858821</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0001375642339085718</v>
+        <v>0.0001553194807632286</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.04114129429389787</v>
+        <v>-0.04506093239897868</v>
       </c>
       <c r="E30" t="n">
-        <v>5.535148491673433e-06</v>
+        <v>5.605315991092278e-06</v>
       </c>
       <c r="F30" t="n">
-        <v>0.005435090273477813</v>
+        <v>0.005628130650154798</v>
       </c>
       <c r="G30" t="n">
-        <v>2.231208401516453e-06</v>
+        <v>2.360944817839122e-06</v>
       </c>
       <c r="H30" t="n">
-        <v>0.00154106954483684</v>
+        <v>0.001623898373493762</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1857912532329371</v>
+        <v>0.1907413560339666</v>
       </c>
       <c r="J30" t="n">
-        <v>5.41823451080725e-05</v>
+        <v>5.762548204206964e-05</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.00213170585601167</v>
+        <v>-0.002074986368551645</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0003144227555705656</v>
+        <v>0.0003627619006399431</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.0001319951163257113</v>
+        <v>-0.0001152951603109846</v>
       </c>
       <c r="N30" t="n">
-        <v>-1.314977908339863e-05</v>
+        <v>-1.884428376734797e-05</v>
       </c>
       <c r="O30" t="n">
-        <v>2.391607276148569e-05</v>
+        <v>-7.469049871630102e-05</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0001203280859342312</v>
+        <v>9.40251714667342e-05</v>
       </c>
       <c r="Q30" t="n">
-        <v>4379.905574217757</v>
+        <v>4372.175843338418</v>
       </c>
       <c r="R30" t="n">
-        <v>0.19223</v>
+        <v>0.18418</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9983486684439856</v>
+        <v>0.9983059735122118</v>
       </c>
       <c r="B31" t="n">
-        <v>34.78670967826702</v>
+        <v>34.56260704525474</v>
       </c>
       <c r="C31" t="n">
-        <v>9.110622422369693e-05</v>
+        <v>0.0001375642339085718</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.03702252695784381</v>
+        <v>-0.04114129429389787</v>
       </c>
       <c r="E31" t="n">
-        <v>5.442924753917483e-06</v>
+        <v>5.535148491673433e-06</v>
       </c>
       <c r="F31" t="n">
-        <v>0.005246922367704391</v>
+        <v>0.005435090273477813</v>
       </c>
       <c r="G31" t="n">
-        <v>1.58270557786521e-06</v>
+        <v>2.231208401516453e-06</v>
       </c>
       <c r="H31" t="n">
-        <v>0.00151231566294679</v>
+        <v>0.00154106954483684</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1811240700926244</v>
+        <v>0.1857912532329371</v>
       </c>
       <c r="J31" t="n">
-        <v>3.532716654920983e-05</v>
+        <v>5.41823451080725e-05</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.002171664435741792</v>
+        <v>-0.00213170585601167</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0008826216797952906</v>
+        <v>0.0003144227555705656</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.0001498789661739272</v>
+        <v>-0.0001319951163257113</v>
       </c>
       <c r="N31" t="n">
-        <v>-6.005756468999639e-06</v>
+        <v>-1.314977908339863e-05</v>
       </c>
       <c r="O31" t="n">
-        <v>9.507295083134263e-05</v>
+        <v>2.391607276148569e-05</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0001845440967192696</v>
+        <v>0.0001203280859342312</v>
       </c>
       <c r="Q31" t="n">
-        <v>4387.440314059713</v>
+        <v>4379.905574217757</v>
       </c>
       <c r="R31" t="n">
-        <v>0.20028</v>
+        <v>0.19223</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9983934027061117</v>
+        <v>0.9983486684439856</v>
       </c>
       <c r="B32" t="n">
-        <v>35.01976714093695</v>
+        <v>34.78670967826702</v>
       </c>
       <c r="C32" t="n">
-        <v>3.432035677531228e-05</v>
+        <v>9.110622422369693e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.03277763162624699</v>
+        <v>-0.03702252695784381</v>
       </c>
       <c r="E32" t="n">
-        <v>5.450368300632095e-06</v>
+        <v>5.442924753917483e-06</v>
       </c>
       <c r="F32" t="n">
-        <v>0.005067411569774109</v>
+        <v>0.005246922367704391</v>
       </c>
       <c r="G32" t="n">
-        <v>8.666429968071341e-07</v>
+        <v>1.58270557786521e-06</v>
       </c>
       <c r="H32" t="n">
-        <v>0.001445914300834942</v>
+        <v>0.00151231566294679</v>
       </c>
       <c r="I32" t="n">
-        <v>0.175999310970327</v>
+        <v>0.1811240700926244</v>
       </c>
       <c r="J32" t="n">
-        <v>2.493658470772959e-05</v>
+        <v>3.532716654920983e-05</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.002210720511823313</v>
+        <v>-0.002171664435741792</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0003026799283570587</v>
+        <v>0.0008826216797952906</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0001656788097220391</v>
+        <v>-0.0001498789661739272</v>
       </c>
       <c r="N32" t="n">
-        <v>2.65766720334772e-06</v>
+        <v>-6.005756468999639e-06</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0001815513014279788</v>
+        <v>9.507295083134263e-05</v>
       </c>
       <c r="P32" t="n">
-        <v>0.0001962619208789926</v>
+        <v>0.0001845440967192696</v>
       </c>
       <c r="Q32" t="n">
-        <v>4395.331064063732</v>
+        <v>4387.440314059713</v>
       </c>
       <c r="R32" t="n">
-        <v>0.20891</v>
+        <v>0.20028</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.998436452815044</v>
+        <v>0.9983934027061117</v>
       </c>
       <c r="B33" t="n">
-        <v>35.24581101332671</v>
+        <v>35.01976714093695</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.613422313954819e-05</v>
+        <v>3.432035677531228e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.02912016425911593</v>
+        <v>-0.03277763162624699</v>
       </c>
       <c r="E33" t="n">
-        <v>5.395269646809426e-06</v>
+        <v>5.450368300632095e-06</v>
       </c>
       <c r="F33" t="n">
-        <v>0.004903338576424722</v>
+        <v>0.005067411569774109</v>
       </c>
       <c r="G33" t="n">
-        <v>-8.396730165692235e-08</v>
+        <v>8.666429968071341e-07</v>
       </c>
       <c r="H33" t="n">
-        <v>0.00143113472956767</v>
+        <v>0.001445914300834942</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1716211617232988</v>
+        <v>0.175999310970327</v>
       </c>
       <c r="J33" t="n">
-        <v>6.462238081131667e-07</v>
+        <v>2.493658470772959e-05</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0022297970128776</v>
+        <v>-0.002210720511823313</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0003189383694841952</v>
+        <v>0.0003026799283570587</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0001766890659277654</v>
+        <v>-0.0001656788097220391</v>
       </c>
       <c r="N33" t="n">
-        <v>9.926226933106871e-06</v>
+        <v>2.65766720334772e-06</v>
       </c>
       <c r="O33" t="n">
-        <v>0.0002198416014902566</v>
+        <v>0.0001815513014279788</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0002565431439886082</v>
+        <v>0.0001962619208789926</v>
       </c>
       <c r="Q33" t="n">
-        <v>4403.038282483786</v>
+        <v>4395.331064063732</v>
       </c>
       <c r="R33" t="n">
-        <v>0.21755</v>
+        <v>0.20891</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.998478231710813</v>
+        <v>0.998436452815044</v>
       </c>
       <c r="B34" t="n">
-        <v>35.46530807660946</v>
+        <v>35.24581101332671</v>
       </c>
       <c r="C34" t="n">
-        <v>-5.705139046634053e-05</v>
+        <v>-1.613422313954819e-05</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.02613687326896126</v>
+        <v>-0.02912016425911593</v>
       </c>
       <c r="E34" t="n">
-        <v>5.296525927983633e-06</v>
+        <v>5.395269646809426e-06</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004774838349959867</v>
+        <v>0.004903338576424722</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.946065165477024e-07</v>
+        <v>-8.396730165692235e-08</v>
       </c>
       <c r="H34" t="n">
-        <v>0.001391629386838331</v>
+        <v>0.00143113472956767</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1684212634891513</v>
+        <v>0.1716211617232988</v>
       </c>
       <c r="J34" t="n">
-        <v>-1.683706213625486e-05</v>
+        <v>6.462238081131667e-07</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.00224545728824262</v>
+        <v>-0.0022297970128776</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0003730075908959997</v>
+        <v>0.0003189383694841952</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.0001820170790896894</v>
+        <v>-0.0001766890659277654</v>
       </c>
       <c r="N34" t="n">
-        <v>1.223520360158908e-05</v>
+        <v>9.926226933106871e-06</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0002178101559021089</v>
+        <v>0.0002198416014902566</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0002884301481091538</v>
+        <v>0.0002565431439886082</v>
       </c>
       <c r="Q34" t="n">
-        <v>4410.574858925845</v>
+        <v>4403.038282483786</v>
       </c>
       <c r="R34" t="n">
-        <v>0.22618</v>
+        <v>0.21755</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.998518855205825</v>
+        <v>0.998478231710813</v>
       </c>
       <c r="B35" t="n">
-        <v>35.67872181929952</v>
+        <v>35.46530807660946</v>
       </c>
       <c r="C35" t="n">
-        <v>-9.153042126205451e-05</v>
+        <v>-5.705139046634053e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.02371052741819952</v>
+        <v>-0.02613687326896126</v>
       </c>
       <c r="E35" t="n">
-        <v>5.171146522685186e-06</v>
+        <v>5.296525927983633e-06</v>
       </c>
       <c r="F35" t="n">
-        <v>0.00464114553806903</v>
+        <v>0.004774838349959867</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.625020423689929e-07</v>
+        <v>-5.946065165477024e-07</v>
       </c>
       <c r="H35" t="n">
-        <v>0.001327966590645098</v>
+        <v>0.001391629386838331</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1648890638337856</v>
+        <v>0.1684212634891513</v>
       </c>
       <c r="J35" t="n">
-        <v>-2.275649762387094e-05</v>
+        <v>-1.683706213625486e-05</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.002257766591528749</v>
+        <v>-0.00224545728824262</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0003529002590912898</v>
+        <v>0.0003730075908959997</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.0001811598232629174</v>
+        <v>-0.0001820170790896894</v>
       </c>
       <c r="N35" t="n">
-        <v>8.925008253263992e-06</v>
+        <v>1.223520360158908e-05</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0001897283732679898</v>
+        <v>0.0002178101559021089</v>
       </c>
       <c r="P35" t="n">
-        <v>0.0002891576588892631</v>
+        <v>0.0002884301481091538</v>
       </c>
       <c r="Q35" t="n">
-        <v>4417.953390531845</v>
+        <v>4410.574858925845</v>
       </c>
       <c r="R35" t="n">
-        <v>0.23482</v>
+        <v>0.22618</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9985581315932808</v>
+        <v>0.998518855205825</v>
       </c>
       <c r="B36" t="n">
-        <v>35.88651599268688</v>
+        <v>35.67872181929952</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.0001286454503306196</v>
+        <v>-9.153042126205451e-05</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.02152022726932038</v>
+        <v>-0.02371052741819952</v>
       </c>
       <c r="E36" t="n">
-        <v>5.0197787754186e-06</v>
+        <v>5.171146522685186e-06</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00451651467291595</v>
+        <v>0.00464114553806903</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.154858819759778e-07</v>
+        <v>-5.625020423689929e-07</v>
       </c>
       <c r="H36" t="n">
-        <v>0.001304879599261345</v>
+        <v>0.001327966590645098</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1617845010925098</v>
+        <v>0.1648890638337856</v>
       </c>
       <c r="J36" t="n">
-        <v>-2.724612392859664e-05</v>
+        <v>-2.275649762387094e-05</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.002252874873230643</v>
+        <v>-0.002257766591528749</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0008349792637401258</v>
+        <v>0.0003529002590912898</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.0001743396600616886</v>
+        <v>-0.0001811598232629174</v>
       </c>
       <c r="N36" t="n">
-        <v>2.371869470209156e-06</v>
+        <v>8.925008253263992e-06</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0001525028855293544</v>
+        <v>0.0001897283732679898</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0003234893172408593</v>
+        <v>0.0002891576588892631</v>
       </c>
       <c r="Q36" t="n">
-        <v>4425.180537721793</v>
+        <v>4417.953390531845</v>
       </c>
       <c r="R36" t="n">
-        <v>0.24345</v>
+        <v>0.23482</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9985996044031648</v>
+        <v>0.9985581315932808</v>
       </c>
       <c r="B37" t="n">
-        <v>36.10262981914663</v>
+        <v>35.88651599268688</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.0001670775981188437</v>
+        <v>-0.0001286454503306196</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.01921679514016056</v>
+        <v>-0.02152022726932038</v>
       </c>
       <c r="E37" t="n">
-        <v>4.97598356476035e-06</v>
+        <v>5.0197787754186e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004399776401788786</v>
+        <v>0.00451651467291595</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.755747749684497e-08</v>
+        <v>-4.154858819759778e-07</v>
       </c>
       <c r="H37" t="n">
-        <v>0.001255907431444557</v>
+        <v>0.001304879599261345</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1584837937481685</v>
+        <v>0.1617845010925098</v>
       </c>
       <c r="J37" t="n">
-        <v>-1.910937221733305e-05</v>
+        <v>-2.724612392859664e-05</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.002244320229108537</v>
+        <v>-0.002252874873230643</v>
       </c>
       <c r="L37" t="n">
-        <v>0.000352755878334249</v>
+        <v>0.0008349792637401258</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.0001659582768528153</v>
+        <v>-0.0001743396600616886</v>
       </c>
       <c r="N37" t="n">
-        <v>-4.477586842766185e-06</v>
+        <v>2.371869470209156e-06</v>
       </c>
       <c r="O37" t="n">
-        <v>0.0001370319076912051</v>
+        <v>0.0001525028855293544</v>
       </c>
       <c r="P37" t="n">
-        <v>0.0003185461977499873</v>
+        <v>0.0003234893172408593</v>
       </c>
       <c r="Q37" t="n">
-        <v>4432.739442703881</v>
+        <v>4425.180537721793</v>
       </c>
       <c r="R37" t="n">
-        <v>0.25269</v>
+        <v>0.24345</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.998639607699805</v>
+        <v>0.9985996044031648</v>
       </c>
       <c r="B38" t="n">
-        <v>36.31295221304897</v>
+        <v>36.10262981914663</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.0001957193274017691</v>
+        <v>-0.0001670775981188437</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.01686920539333776</v>
+        <v>-0.01921679514016056</v>
       </c>
       <c r="E38" t="n">
-        <v>4.872612222244108e-06</v>
+        <v>4.97598356476035e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004291912540133011</v>
+        <v>0.004399776401788786</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.543573197970435e-07</v>
+        <v>-7.755747749684497e-08</v>
       </c>
       <c r="H38" t="n">
-        <v>0.001245222092763524</v>
+        <v>0.001255907431444557</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1556275246372103</v>
+        <v>0.1584837937481685</v>
       </c>
       <c r="J38" t="n">
-        <v>-3.101781270783176e-05</v>
+        <v>-1.910937221733305e-05</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0022269776819841</v>
+        <v>-0.002244320229108537</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0003706820805143156</v>
+        <v>0.000352755878334249</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.0001608005098286224</v>
+        <v>-0.0001659582768528153</v>
       </c>
       <c r="N38" t="n">
-        <v>-1.133204585634771e-05</v>
+        <v>-4.477586842766185e-06</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0001114731920659026</v>
+        <v>0.0001370319076912051</v>
       </c>
       <c r="P38" t="n">
-        <v>0.0003495519446566876</v>
+        <v>0.0003185461977499873</v>
       </c>
       <c r="Q38" t="n">
-        <v>4440.13471266099</v>
+        <v>4432.739442703881</v>
       </c>
       <c r="R38" t="n">
-        <v>0.26192</v>
+        <v>0.25269</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9986789242919392</v>
+        <v>0.998639607699805</v>
       </c>
       <c r="B39" t="n">
-        <v>36.51797900820497</v>
+        <v>36.31295221304897</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.0001988692900637355</v>
+        <v>-0.0001957193274017691</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.01438021662168425</v>
+        <v>-0.01686920539333776</v>
       </c>
       <c r="E39" t="n">
-        <v>4.740928212951496e-06</v>
+        <v>4.872612222244108e-06</v>
       </c>
       <c r="F39" t="n">
-        <v>0.004209405542655659</v>
+        <v>0.004291912540133011</v>
       </c>
       <c r="G39" t="n">
-        <v>-1.188514728113175e-06</v>
+        <v>-3.543573197970435e-07</v>
       </c>
       <c r="H39" t="n">
-        <v>0.001212257228954487</v>
+        <v>0.001245222092763524</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1536431006255654</v>
+        <v>0.1556275246372103</v>
       </c>
       <c r="J39" t="n">
-        <v>-6.498471536799749e-05</v>
+        <v>-3.101781270783176e-05</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.002217033099542611</v>
+        <v>-0.0022269776819841</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0004193417930519644</v>
+        <v>0.0003706820805143156</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.0001545795086451047</v>
+        <v>-0.0001608005098286224</v>
       </c>
       <c r="N39" t="n">
-        <v>-1.727789086411949e-05</v>
+        <v>-1.133204585634771e-05</v>
       </c>
       <c r="O39" t="n">
-        <v>8.366745363880607e-05</v>
+        <v>0.0001114731920659026</v>
       </c>
       <c r="P39" t="n">
-        <v>0.0003559398469363892</v>
+        <v>0.0003495519446566876</v>
       </c>
       <c r="Q39" t="n">
-        <v>4447.382990556164</v>
+        <v>4440.13471266099</v>
       </c>
       <c r="R39" t="n">
-        <v>0.27115</v>
+        <v>0.26192</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9987173499312005</v>
+        <v>0.9986789242919392</v>
       </c>
       <c r="B40" t="n">
-        <v>36.71813967562333</v>
+        <v>36.51797900820497</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.0001766095881413333</v>
+        <v>-0.0001988692900637355</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.01170018021029699</v>
+        <v>-0.01438021662168425</v>
       </c>
       <c r="E40" t="n">
-        <v>4.596595848578861e-06</v>
+        <v>4.740928212951496e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004113716576367389</v>
+        <v>0.004209405542655659</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.305626719126245e-06</v>
+        <v>-1.188514728113175e-06</v>
       </c>
       <c r="H40" t="n">
-        <v>0.00115701292422462</v>
+        <v>0.001212257228954487</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1510829797009772</v>
+        <v>0.1536431006255654</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.0001127074841246862</v>
+        <v>-6.498471536799749e-05</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.002212936630053256</v>
+        <v>-0.002217033099542611</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0004128766932172342</v>
+        <v>0.0004193417930519644</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.0001462347106199515</v>
+        <v>-0.0001545795086451047</v>
       </c>
       <c r="N40" t="n">
-        <v>-2.281197012665787e-05</v>
+        <v>-1.727789086411949e-05</v>
       </c>
       <c r="O40" t="n">
-        <v>6.39566149822746e-05</v>
+        <v>8.366745363880607e-05</v>
       </c>
       <c r="P40" t="n">
-        <v>0.0003382817090811133</v>
+        <v>0.0003559398469363892</v>
       </c>
       <c r="Q40" t="n">
-        <v>4454.498991476002</v>
+        <v>4447.382990556164</v>
       </c>
       <c r="R40" t="n">
-        <v>0.28038</v>
+        <v>0.27115</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9987546292712993</v>
+        <v>0.9987173499312005</v>
       </c>
       <c r="B41" t="n">
-        <v>36.91378228159359</v>
+        <v>36.71813967562333</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0001443967524939798</v>
+        <v>-0.0001766095881413333</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.008827409969761684</v>
+        <v>-0.01170018021029699</v>
       </c>
       <c r="E41" t="n">
-        <v>4.432607901924594e-06</v>
+        <v>4.596595848578861e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00401782278193441</v>
+        <v>0.004113716576367389</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.262497185619483e-06</v>
+        <v>-2.305626719126245e-06</v>
       </c>
       <c r="H41" t="n">
-        <v>0.001131922164747349</v>
+        <v>0.00115701292422462</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1485945760313548</v>
+        <v>0.1510829797009772</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.0001568003153222904</v>
+        <v>-0.0001127074841246862</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.002197026693947559</v>
+        <v>-0.002212936630053256</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0008391619709206384</v>
+        <v>0.0004128766932172342</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.0001383600716316578</v>
+        <v>-0.0001462347106199515</v>
       </c>
       <c r="N41" t="n">
-        <v>-2.943510693827718e-05</v>
+        <v>-2.281197012665787e-05</v>
       </c>
       <c r="O41" t="n">
-        <v>6.266853254331816e-05</v>
+        <v>6.39566149822746e-05</v>
       </c>
       <c r="P41" t="n">
-        <v>0.0003535925659864838</v>
+        <v>0.0003382817090811133</v>
       </c>
       <c r="Q41" t="n">
-        <v>4461.488574329686</v>
+        <v>4454.498991476002</v>
       </c>
       <c r="R41" t="n">
-        <v>0.28961</v>
+        <v>0.28038</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9987940369510377</v>
+        <v>0.9987546292712993</v>
       </c>
       <c r="B42" t="n">
-        <v>37.11666816369172</v>
+        <v>36.91378228159359</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.0001011299014814159</v>
+        <v>-0.0001443967524939798</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.005578252618073871</v>
+        <v>-0.008827409969761684</v>
       </c>
       <c r="E42" t="n">
-        <v>4.335698855724687e-06</v>
+        <v>4.432607901924594e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003930479621029699</v>
+        <v>0.00401782278193441</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.928222163791421e-06</v>
+        <v>-3.262497185619483e-06</v>
       </c>
       <c r="H42" t="n">
-        <v>0.001081172812782149</v>
+        <v>0.001131922164747349</v>
       </c>
       <c r="I42" t="n">
-        <v>0.146141792639733</v>
+        <v>0.1485945760313548</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.0001523342906277471</v>
+        <v>-0.0001568003153222904</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.00216776005825657</v>
+        <v>-0.002197026693947559</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0004380178654659522</v>
+        <v>0.0008391619709206384</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.0001323512410069484</v>
+        <v>-0.0001383600716316578</v>
       </c>
       <c r="N42" t="n">
-        <v>-3.44810275604384e-05</v>
+        <v>-2.943510693827718e-05</v>
       </c>
       <c r="O42" t="n">
-        <v>5.6467271439087e-05</v>
+        <v>6.266853254331816e-05</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0003302895059501969</v>
+        <v>0.0003535925659864838</v>
       </c>
       <c r="Q42" t="n">
-        <v>4468.775163917136</v>
+        <v>4461.488574329686</v>
       </c>
       <c r="R42" t="n">
-        <v>0.29945</v>
+        <v>0.28961</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9988321052631579</v>
+        <v>0.9987940369510377</v>
       </c>
       <c r="B43" t="n">
-        <v>37.31350139032221</v>
+        <v>37.11666816369172</v>
       </c>
       <c r="C43" t="n">
-        <v>-4.622199796866428e-05</v>
+        <v>-0.0001011299014814159</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.002034539658005422</v>
+        <v>-0.005578252618073871</v>
       </c>
       <c r="E43" t="n">
-        <v>4.199254681196252e-06</v>
+        <v>4.335698855724687e-06</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003832360570748767</v>
+        <v>0.003930479621029699</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.513171300825591e-06</v>
+        <v>-2.928222163791421e-06</v>
       </c>
       <c r="H43" t="n">
-        <v>0.001057164197429535</v>
+        <v>0.001081172812782149</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1433417856323816</v>
+        <v>0.146141792639733</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.000100336705080887</v>
+        <v>-0.0001523342906277471</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.00212224978579801</v>
+        <v>-0.00216776005825657</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0004636121457352065</v>
+        <v>0.0004380178654659522</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.0001259964107197585</v>
+        <v>-0.0001323512410069484</v>
       </c>
       <c r="N43" t="n">
-        <v>-3.661978877415147e-05</v>
+        <v>-3.44810275604384e-05</v>
       </c>
       <c r="O43" t="n">
-        <v>4.351888426680012e-05</v>
+        <v>5.6467271439087e-05</v>
       </c>
       <c r="P43" t="n">
-        <v>0.0003433074878262344</v>
+        <v>0.0003302895059501969</v>
       </c>
       <c r="Q43" t="n">
-        <v>4475.884259166789</v>
+        <v>4468.775163917136</v>
       </c>
       <c r="R43" t="n">
-        <v>0.30928</v>
+        <v>0.29945</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9988693259087261</v>
+        <v>0.9988321052631579</v>
       </c>
       <c r="B44" t="n">
-        <v>37.5041727423588</v>
+        <v>37.31350139032221</v>
       </c>
       <c r="C44" t="n">
-        <v>7.707100861266117e-06</v>
+        <v>-4.622199796866428e-05</v>
       </c>
       <c r="D44" t="n">
-        <v>0.002012769779680114</v>
+        <v>-0.002034539658005422</v>
       </c>
       <c r="E44" t="n">
-        <v>4.052293486929251e-06</v>
+        <v>4.199254681196252e-06</v>
       </c>
       <c r="F44" t="n">
-        <v>0.003742615134445591</v>
+        <v>0.003832360570748767</v>
       </c>
       <c r="G44" t="n">
-        <v>7.197183574991328e-08</v>
+        <v>-1.513171300825591e-06</v>
       </c>
       <c r="H44" t="n">
-        <v>0.00101336903630406</v>
+        <v>0.001057164197429535</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1407968758361044</v>
+        <v>0.1433417856323816</v>
       </c>
       <c r="J44" t="n">
-        <v>-3.654978960738131e-05</v>
+        <v>-0.000100336705080887</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.002075316604078279</v>
+        <v>-0.00212224978579801</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0005096124094056253</v>
+        <v>0.0004636121457352065</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.0001203533854565847</v>
+        <v>-0.0001259964107197585</v>
       </c>
       <c r="N44" t="n">
-        <v>-3.641409103097489e-05</v>
+        <v>-3.661978877415147e-05</v>
       </c>
       <c r="O44" t="n">
-        <v>4.111432537395369e-05</v>
+        <v>4.351888426680012e-05</v>
       </c>
       <c r="P44" t="n">
-        <v>0.0003399338809800166</v>
+        <v>0.0003433074878262344</v>
       </c>
       <c r="Q44" t="n">
-        <v>4482.807951157911</v>
+        <v>4475.884259166789</v>
       </c>
       <c r="R44" t="n">
-        <v>0.31911</v>
+        <v>0.30928</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9989055954019034</v>
+        <v>0.9988693259087261</v>
       </c>
       <c r="B45" t="n">
-        <v>37.6890029016805</v>
+        <v>37.5041727423588</v>
       </c>
       <c r="C45" t="n">
-        <v>4.446191217718461e-05</v>
+        <v>7.707100861266117e-06</v>
       </c>
       <c r="D45" t="n">
-        <v>0.006610155307712706</v>
+        <v>0.002012769779680114</v>
       </c>
       <c r="E45" t="n">
-        <v>3.908667600054322e-06</v>
+        <v>4.052293486929251e-06</v>
       </c>
       <c r="F45" t="n">
-        <v>0.003628873668443986</v>
+        <v>0.003742615134445591</v>
       </c>
       <c r="G45" t="n">
-        <v>1.186904481123149e-06</v>
+        <v>7.197183574991328e-08</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0009528375656619877</v>
+        <v>0.00101336903630406</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1372677512135458</v>
+        <v>0.1407968758361044</v>
       </c>
       <c r="J45" t="n">
-        <v>1.287561735259064e-05</v>
+        <v>-3.654978960738131e-05</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.00203132390048287</v>
+        <v>-0.002075316604078279</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0005098594466394812</v>
+        <v>0.0005096124094056253</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.0001150197263549192</v>
+        <v>-0.0001203533854565847</v>
       </c>
       <c r="N45" t="n">
-        <v>-3.452746426768402e-05</v>
+        <v>-3.641409103097489e-05</v>
       </c>
       <c r="O45" t="n">
-        <v>5.78720074623753e-05</v>
+        <v>4.111432537395369e-05</v>
       </c>
       <c r="P45" t="n">
-        <v>0.0003210066936535694</v>
+        <v>0.0003399338809800166</v>
       </c>
       <c r="Q45" t="n">
-        <v>4489.554096257067</v>
+        <v>4482.807951157911</v>
       </c>
       <c r="R45" t="n">
-        <v>0.32894</v>
+        <v>0.31911</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9989404277749111</v>
+        <v>0.9989055954019034</v>
       </c>
       <c r="B46" t="n">
-        <v>37.86872228512912</v>
+        <v>37.6890029016805</v>
       </c>
       <c r="C46" t="n">
-        <v>4.471020722449928e-05</v>
+        <v>4.446191217718461e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>0.01164156993323905</v>
+        <v>0.006610155307712706</v>
       </c>
       <c r="E46" t="n">
-        <v>3.760277499771457e-06</v>
+        <v>3.908667600054322e-06</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00350819916365669</v>
+        <v>0.003628873668443986</v>
       </c>
       <c r="G46" t="n">
-        <v>1.514101590481307e-06</v>
+        <v>1.186904481123149e-06</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0009222409668835002</v>
+        <v>0.0009528375656619877</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1335102239645046</v>
+        <v>0.1372677512135458</v>
       </c>
       <c r="J46" t="n">
-        <v>3.410369105483723e-05</v>
+        <v>1.287561735259064e-05</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.001985629498440865</v>
+        <v>-0.00203132390048287</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0008809227771485333</v>
+        <v>0.0005098594466394812</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.0001081227178440689</v>
+        <v>-0.0001150197263549192</v>
       </c>
       <c r="N46" t="n">
-        <v>-3.108865350644278e-05</v>
+        <v>-3.452746426768402e-05</v>
       </c>
       <c r="O46" t="n">
-        <v>8.812336015223472e-05</v>
+        <v>5.78720074623753e-05</v>
       </c>
       <c r="P46" t="n">
-        <v>0.0003363327897784403</v>
+        <v>0.0003210066936535694</v>
       </c>
       <c r="Q46" t="n">
-        <v>4496.141324065979</v>
+        <v>4489.554096257067</v>
       </c>
       <c r="R46" t="n">
-        <v>0.33877</v>
+        <v>0.32894</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9989765896972825</v>
+        <v>0.9989404277749111</v>
       </c>
       <c r="B47" t="n">
-        <v>38.05401347641071</v>
+        <v>37.86872228512912</v>
       </c>
       <c r="C47" t="n">
-        <v>4.220530344219826e-06</v>
+        <v>4.471020722449928e-05</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0171186020655904</v>
+        <v>0.01164156993323905</v>
       </c>
       <c r="E47" t="n">
-        <v>3.664430579808364e-06</v>
+        <v>3.760277499771457e-06</v>
       </c>
       <c r="F47" t="n">
-        <v>0.003383773464912281</v>
+        <v>0.00350819916365669</v>
       </c>
       <c r="G47" t="n">
-        <v>2.290801534629052e-06</v>
+        <v>1.514101590481307e-06</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0008792713563478878</v>
+        <v>0.0009222409668835002</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1293710075615691</v>
+        <v>0.1335102239645046</v>
       </c>
       <c r="J47" t="n">
-        <v>6.659220027567554e-05</v>
+        <v>3.410369105483723e-05</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.001943324151791971</v>
+        <v>-0.001985629498440865</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0005279529445612443</v>
+        <v>0.0008809227771485333</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.0001000834848323253</v>
+        <v>-0.0001081227178440689</v>
       </c>
       <c r="N47" t="n">
-        <v>-2.96343102139631e-05</v>
+        <v>-3.108865350644278e-05</v>
       </c>
       <c r="O47" t="n">
-        <v>0.0001021053479694711</v>
+        <v>8.812336015223472e-05</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0003244893520845755</v>
+        <v>0.0003363327897784403</v>
       </c>
       <c r="Q47" t="n">
-        <v>4502.959183194191</v>
+        <v>4496.141324065979</v>
       </c>
       <c r="R47" t="n">
-        <v>0.34919</v>
+        <v>0.33877</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.999011292856324</v>
+        <v>0.9989765896972825</v>
       </c>
       <c r="B48" t="n">
-        <v>38.23462945444584</v>
+        <v>38.05401347641071</v>
       </c>
       <c r="C48" t="n">
-        <v>-5.45056982515079e-05</v>
+        <v>4.220530344219826e-06</v>
       </c>
       <c r="D48" t="n">
-        <v>0.02227512531120611</v>
+        <v>0.0171186020655904</v>
       </c>
       <c r="E48" t="n">
-        <v>3.53691166356847e-06</v>
+        <v>3.664430579808364e-06</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003270448735810113</v>
+        <v>0.003383773464912281</v>
       </c>
       <c r="G48" t="n">
-        <v>3.241445435236784e-06</v>
+        <v>2.290801534629052e-06</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0008655792379557486</v>
+        <v>0.0008792713563478878</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1256888714501395</v>
+        <v>0.1293710075615691</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0001028453479126055</v>
+        <v>6.659220027567554e-05</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.001904513802411803</v>
+        <v>-0.001943324151791971</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0005449280805146501</v>
+        <v>0.0005279529445612443</v>
       </c>
       <c r="M48" t="n">
-        <v>-8.970260029676134e-05</v>
+        <v>-0.0001000834848323253</v>
       </c>
       <c r="N48" t="n">
-        <v>-3.029936912296628e-05</v>
+        <v>-2.96343102139631e-05</v>
       </c>
       <c r="O48" t="n">
-        <v>0.0001033016249814504</v>
+        <v>0.0001021053479694711</v>
       </c>
       <c r="P48" t="n">
-        <v>0.0003416850441066344</v>
+        <v>0.0003244893520845755</v>
       </c>
       <c r="Q48" t="n">
-        <v>4509.633068903437</v>
+        <v>4502.959183194191</v>
       </c>
       <c r="R48" t="n">
-        <v>0.35961</v>
+        <v>0.34919</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.99904489708749</v>
+        <v>0.999011292856324</v>
       </c>
       <c r="B49" t="n">
-        <v>38.41102232478436</v>
+        <v>38.23462945444584</v>
       </c>
       <c r="C49" t="n">
-        <v>-9.520664958704419e-05</v>
+        <v>-5.45056982515079e-05</v>
       </c>
       <c r="D49" t="n">
-        <v>0.02710223798889812</v>
+        <v>0.02227512531120611</v>
       </c>
       <c r="E49" t="n">
-        <v>3.401653403249198e-06</v>
+        <v>3.53691166356847e-06</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003185641253869969</v>
+        <v>0.003270448735810113</v>
       </c>
       <c r="G49" t="n">
-        <v>3.967888350908437e-06</v>
+        <v>3.241445435236784e-06</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0008386822879455719</v>
+        <v>0.0008655792379557486</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1230508980557785</v>
+        <v>0.1256888714501395</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0001284817838577697</v>
+        <v>0.0001028453479126055</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.001875705496948617</v>
+        <v>-0.001904513802411803</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0005777600310097913</v>
+        <v>0.0005449280805146501</v>
       </c>
       <c r="M49" t="n">
-        <v>-8.046203241115793e-05</v>
+        <v>-8.970260029676134e-05</v>
       </c>
       <c r="N49" t="n">
-        <v>-3.260549465361787e-05</v>
+        <v>-3.029936912296628e-05</v>
       </c>
       <c r="O49" t="n">
-        <v>8.864674976445745e-05</v>
+        <v>0.0001033016249814504</v>
       </c>
       <c r="P49" t="n">
-        <v>0.0003447080183904911</v>
+        <v>0.0003416850441066344</v>
       </c>
       <c r="Q49" t="n">
-        <v>4516.180718292747</v>
+        <v>4509.633068903437</v>
       </c>
       <c r="R49" t="n">
-        <v>0.37004</v>
+        <v>0.35961</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9990776795952299</v>
+        <v>0.99904489708749</v>
       </c>
       <c r="B50" t="n">
-        <v>38.58358871147549</v>
+        <v>38.41102232478436</v>
       </c>
       <c r="C50" t="n">
-        <v>-9.87045035265283e-05</v>
+        <v>-9.520664958704419e-05</v>
       </c>
       <c r="D50" t="n">
-        <v>0.03167014046133615</v>
+        <v>0.02710223798889812</v>
       </c>
       <c r="E50" t="n">
-        <v>3.272300109892085e-06</v>
+        <v>3.401653403249198e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00309733672457287</v>
+        <v>0.003185641253869969</v>
       </c>
       <c r="G50" t="n">
-        <v>4.141048131120288e-06</v>
+        <v>3.967888350908437e-06</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0007962863198651937</v>
+        <v>0.0008386822879455719</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1202155318738931</v>
+        <v>0.1230508980557785</v>
       </c>
       <c r="J50" t="n">
-        <v>0.000132295081278746</v>
+        <v>0.0001284817838577697</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.001854121631693613</v>
+        <v>-0.001875705496948617</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0005716980077873014</v>
+        <v>0.0005777600310097913</v>
       </c>
       <c r="M50" t="n">
-        <v>-7.322539000250035e-05</v>
+        <v>-8.046203241115793e-05</v>
       </c>
       <c r="N50" t="n">
-        <v>-3.495177793228191e-05</v>
+        <v>-3.260549465361787e-05</v>
       </c>
       <c r="O50" t="n">
-        <v>8.096615897603756e-05</v>
+        <v>8.864674976445745e-05</v>
       </c>
       <c r="P50" t="n">
-        <v>0.0003356182180152267</v>
+        <v>0.0003447080183904911</v>
       </c>
       <c r="Q50" t="n">
-        <v>4522.612325838937</v>
+        <v>4516.180718292747</v>
       </c>
       <c r="R50" t="n">
-        <v>0.38046</v>
+        <v>0.37004</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9991091900298132</v>
+        <v>0.9990776795952299</v>
       </c>
       <c r="B51" t="n">
-        <v>38.75266303638089</v>
+        <v>38.58358871147549</v>
       </c>
       <c r="C51" t="n">
-        <v>-6.335265501296378e-05</v>
+        <v>-9.87045035265283e-05</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0361277202394603</v>
+        <v>0.03167014046133615</v>
       </c>
       <c r="E51" t="n">
-        <v>3.146223786292283e-06</v>
+        <v>3.272300109892085e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>0.003019854362315102</v>
+        <v>0.00309733672457287</v>
       </c>
       <c r="G51" t="n">
-        <v>3.552872145923308e-06</v>
+        <v>4.141048131120288e-06</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0007715796257346171</v>
+        <v>0.0007962863198651937</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1178135292843583</v>
+        <v>0.1202155318738931</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0001078786464505775</v>
+        <v>0.000132295081278746</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.001828548325760616</v>
+        <v>-0.001854121631693613</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0008870179304512893</v>
+        <v>0.0005716980077873014</v>
       </c>
       <c r="M51" t="n">
-        <v>-6.637627867045581e-05</v>
+        <v>-7.322539000250035e-05</v>
       </c>
       <c r="N51" t="n">
-        <v>-3.458113533959776e-05</v>
+        <v>-3.495177793228191e-05</v>
       </c>
       <c r="O51" t="n">
-        <v>0.0001167893216190979</v>
+        <v>8.096615897603756e-05</v>
       </c>
       <c r="P51" t="n">
-        <v>0.0003574062393879317</v>
+        <v>0.0003356182180152267</v>
       </c>
       <c r="Q51" t="n">
-        <v>4528.936510369279</v>
+        <v>4522.612325838937</v>
       </c>
       <c r="R51" t="n">
-        <v>0.39088</v>
+        <v>0.38046</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9991423219814241</v>
+        <v>0.9991091900298132</v>
       </c>
       <c r="B52" t="n">
-        <v>38.92721684726521</v>
+        <v>38.75266303638089</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.113470684315825e-05</v>
+        <v>-6.335265501296378e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0404047949305022</v>
+        <v>0.0361277202394603</v>
       </c>
       <c r="E52" t="n">
-        <v>3.04466757086673e-06</v>
+        <v>3.146223786292283e-06</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002947268349386538</v>
+        <v>0.003019854362315102</v>
       </c>
       <c r="G52" t="n">
-        <v>2.916143466546264e-06</v>
+        <v>3.552872145923308e-06</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0007276343669491354</v>
+        <v>0.0007715796257346171</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1153979083852514</v>
+        <v>0.1178135292843583</v>
       </c>
       <c r="J52" t="n">
-        <v>7.81315014707475e-05</v>
+        <v>0.0001078786464505775</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.00179740356172521</v>
+        <v>-0.001828548325760616</v>
       </c>
       <c r="L52" t="n">
-        <v>0.0005753994425457517</v>
+        <v>0.0008870179304512893</v>
       </c>
       <c r="M52" t="n">
-        <v>-6.224041720197449e-05</v>
+        <v>-6.637627867045581e-05</v>
       </c>
       <c r="N52" t="n">
-        <v>-3.438814832639764e-05</v>
+        <v>-3.458113533959776e-05</v>
       </c>
       <c r="O52" t="n">
-        <v>0.0001523258138649524</v>
+        <v>0.0001167893216190979</v>
       </c>
       <c r="P52" t="n">
-        <v>0.000353276272618488</v>
+        <v>0.0003574062393879317</v>
       </c>
       <c r="Q52" t="n">
-        <v>4535.488445580677</v>
+        <v>4528.936510369279</v>
       </c>
       <c r="R52" t="n">
-        <v>0.40188</v>
+        <v>0.39088</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9991742862057104</v>
+        <v>0.9991423219814241</v>
       </c>
       <c r="B53" t="n">
-        <v>39.09785954879027</v>
+        <v>38.92721684726521</v>
       </c>
       <c r="C53" t="n">
-        <v>2.451743201435689e-05</v>
+        <v>-1.113470684315825e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>0.04385473936963061</v>
+        <v>0.0404047949305022</v>
       </c>
       <c r="E53" t="n">
-        <v>2.927394332849013e-06</v>
+        <v>3.04466757086673e-06</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002874955234491457</v>
+        <v>0.002947268349386538</v>
       </c>
       <c r="G53" t="n">
-        <v>2.617520689948113e-06</v>
+        <v>2.916143466546264e-06</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0007053199703303727</v>
+        <v>0.0007276343669491354</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1130688932525577</v>
+        <v>0.1153979083852514</v>
       </c>
       <c r="J53" t="n">
-        <v>6.054483124012608e-05</v>
+        <v>7.81315014707475e-05</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.001761091697960861</v>
+        <v>-0.00179740356172521</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0005844036898985287</v>
+        <v>0.0005753994425457517</v>
       </c>
       <c r="M53" t="n">
-        <v>-6.043490203509011e-05</v>
+        <v>-6.224041720197449e-05</v>
       </c>
       <c r="N53" t="n">
-        <v>-3.367834751538113e-05</v>
+        <v>-3.438814832639764e-05</v>
       </c>
       <c r="O53" t="n">
-        <v>0.0001767726035586197</v>
+        <v>0.0001523258138649524</v>
       </c>
       <c r="P53" t="n">
-        <v>0.0003740748326965562</v>
+        <v>0.000353276272618488</v>
       </c>
       <c r="Q53" t="n">
-        <v>4541.917799101467</v>
+        <v>4535.488445580677</v>
       </c>
       <c r="R53" t="n">
-        <v>0.41288</v>
+        <v>0.40188</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9992055857986469</v>
+        <v>0.9991742862057104</v>
       </c>
       <c r="B54" t="n">
-        <v>39.26491954286588</v>
+        <v>39.09785954879027</v>
       </c>
       <c r="C54" t="n">
-        <v>4.636857415266877e-05</v>
+        <v>2.451743201435689e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>0.04629264842648412</v>
+        <v>0.04385473936963061</v>
       </c>
       <c r="E54" t="n">
-        <v>2.818400936554351e-06</v>
+        <v>2.927394332849013e-06</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0028195684124527</v>
+        <v>0.002874955234491457</v>
       </c>
       <c r="G54" t="n">
-        <v>2.346016650040131e-06</v>
+        <v>2.617520689948113e-06</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0006756655690282158</v>
+        <v>0.0007053199703303727</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1114045152027673</v>
+        <v>0.1130688932525577</v>
       </c>
       <c r="J54" t="n">
-        <v>4.565808447107233e-05</v>
+        <v>6.054483124012608e-05</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.001728626242451172</v>
+        <v>-0.001761091697960861</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0006116666862680598</v>
+        <v>0.0005844036898985287</v>
       </c>
       <c r="M54" t="n">
-        <v>-6.273639958613626e-05</v>
+        <v>-6.043490203509011e-05</v>
       </c>
       <c r="N54" t="n">
-        <v>-3.545931678460517e-05</v>
+        <v>-3.367834751538113e-05</v>
       </c>
       <c r="O54" t="n">
-        <v>0.0001884463944308597</v>
+        <v>0.0001767726035586197</v>
       </c>
       <c r="P54" t="n">
-        <v>0.0003797483527310038</v>
+        <v>0.0003740748326965562</v>
       </c>
       <c r="Q54" t="n">
-        <v>4548.23644475639</v>
+        <v>4541.917799101467</v>
       </c>
       <c r="R54" t="n">
-        <v>0.42388</v>
+        <v>0.41288</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9992362636165578</v>
+        <v>0.9992055857986469</v>
       </c>
       <c r="B55" t="n">
-        <v>39.42896989546306</v>
+        <v>39.26491954286588</v>
       </c>
       <c r="C55" t="n">
-        <v>5.938922553813221e-05</v>
+        <v>4.636857415266877e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>0.04764409405333614</v>
+        <v>0.04629264842648412</v>
       </c>
       <c r="E55" t="n">
-        <v>2.724110828360853e-06</v>
+        <v>2.818400936554351e-06</v>
       </c>
       <c r="F55" t="n">
-        <v>0.00275142523793143</v>
+        <v>0.0028195684124527</v>
       </c>
       <c r="G55" t="n">
-        <v>1.946428933450864e-06</v>
+        <v>2.346016650040131e-06</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0006389788840969729</v>
+        <v>0.0006756655690282158</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1092074755698251</v>
+        <v>0.1114045152027673</v>
       </c>
       <c r="J55" t="n">
-        <v>2.767763864291471e-05</v>
+        <v>4.565808447107233e-05</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.001702351447893973</v>
+        <v>-0.001728626242451172</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0006035644968538186</v>
+        <v>0.0006116666862680598</v>
       </c>
       <c r="M55" t="n">
-        <v>-6.644325805972811e-05</v>
+        <v>-6.273639958613626e-05</v>
       </c>
       <c r="N55" t="n">
-        <v>-3.981384988390889e-05</v>
+        <v>-3.545931678460517e-05</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0002030449512766781</v>
+        <v>0.0001884463944308597</v>
       </c>
       <c r="P55" t="n">
-        <v>0.0003701338849991162</v>
+        <v>0.0003797483527310038</v>
       </c>
       <c r="Q55" t="n">
-        <v>4554.466185319346</v>
+        <v>4548.23644475639</v>
       </c>
       <c r="R55" t="n">
-        <v>0.43488</v>
+        <v>0.42388</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9992659362458434</v>
+        <v>0.9992362636165578</v>
       </c>
       <c r="B56" t="n">
-        <v>39.59083364786785</v>
+        <v>39.42896989546306</v>
       </c>
       <c r="C56" t="n">
-        <v>7.052799632400642e-05</v>
+        <v>5.938922553813221e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>0.04794437721930063</v>
+        <v>0.04764409405333614</v>
       </c>
       <c r="E56" t="n">
-        <v>2.630487267649352e-06</v>
+        <v>2.724110828360853e-06</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002683695765250545</v>
+        <v>0.00275142523793143</v>
       </c>
       <c r="G56" t="n">
-        <v>1.434704003486554e-06</v>
+        <v>1.946428933450864e-06</v>
       </c>
       <c r="H56" t="n">
-        <v>0.000622035186005065</v>
+        <v>0.0006389788840969729</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1070245343694658</v>
+        <v>0.1092074755698251</v>
       </c>
       <c r="J56" t="n">
-        <v>4.697882801292029e-06</v>
+        <v>2.767763864291471e-05</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.001678122482648842</v>
+        <v>-0.001702351447893973</v>
       </c>
       <c r="L56" t="n">
-        <v>0.000875282279048779</v>
+        <v>0.0006035644968538186</v>
       </c>
       <c r="M56" t="n">
-        <v>-6.549539980826054e-05</v>
+        <v>-6.644325805972811e-05</v>
       </c>
       <c r="N56" t="n">
-        <v>-4.438907496759896e-05</v>
+        <v>-3.981384988390889e-05</v>
       </c>
       <c r="O56" t="n">
-        <v>0.0002415326212585601</v>
+        <v>0.0002030449512766781</v>
       </c>
       <c r="P56" t="n">
-        <v>0.0003816437987079957</v>
+        <v>0.0003701338849991162</v>
       </c>
       <c r="Q56" t="n">
-        <v>4560.636818052665</v>
+        <v>4554.466185319346</v>
       </c>
       <c r="R56" t="n">
-        <v>0.44588</v>
+        <v>0.43488</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9992968861082444</v>
+        <v>0.9992659362458434</v>
       </c>
       <c r="B57" t="n">
-        <v>39.75876648320147</v>
+        <v>39.59083364786785</v>
       </c>
       <c r="C57" t="n">
-        <v>7.597207179748203e-05</v>
+        <v>7.052799632400642e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>0.04709268659499261</v>
+        <v>0.04794437721930063</v>
       </c>
       <c r="E57" t="n">
-        <v>2.530832220820434e-06</v>
+        <v>2.630487267649352e-06</v>
       </c>
       <c r="F57" t="n">
-        <v>0.002630769120513703</v>
+        <v>0.002683695765250545</v>
       </c>
       <c r="G57" t="n">
-        <v>1.110055713765625e-06</v>
+        <v>1.434704003486554e-06</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0005931793113334432</v>
+        <v>0.000622035186005065</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1052662161258266</v>
+        <v>0.1070245343694658</v>
       </c>
       <c r="J57" t="n">
-        <v>-1.204592080180021e-05</v>
+        <v>4.697882801292029e-06</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.001658144293467875</v>
+        <v>-0.001678122482648842</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0006026239341857379</v>
+        <v>0.000875282279048779</v>
       </c>
       <c r="M57" t="n">
-        <v>-6.282017927323414e-05</v>
+        <v>-6.549539980826054e-05</v>
       </c>
       <c r="N57" t="n">
-        <v>-5.114748689219986e-05</v>
+        <v>-4.438907496759896e-05</v>
       </c>
       <c r="O57" t="n">
-        <v>0.0002972634542256535</v>
+        <v>0.0002415326212585601</v>
       </c>
       <c r="P57" t="n">
-        <v>0.0003707248692937226</v>
+        <v>0.0003816437987079957</v>
       </c>
       <c r="Q57" t="n">
-        <v>4567.066109050853</v>
+        <v>4560.636818052665</v>
       </c>
       <c r="R57" t="n">
-        <v>0.45743</v>
+        <v>0.44588</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9993270211271642</v>
+        <v>0.9992968861082444</v>
       </c>
       <c r="B58" t="n">
-        <v>39.92477579660844</v>
+        <v>39.75876648320147</v>
       </c>
       <c r="C58" t="n">
-        <v>6.469900786336352e-05</v>
+        <v>7.597207179748203e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>0.04557356785046074</v>
+        <v>0.04709268659499261</v>
       </c>
       <c r="E58" t="n">
-        <v>2.42188010503483e-06</v>
+        <v>2.530832220820434e-06</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002582307787237702</v>
+        <v>0.002630769120513703</v>
       </c>
       <c r="G58" t="n">
-        <v>9.646880524481195e-07</v>
+        <v>1.110055713765625e-06</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0005858445923038603</v>
+        <v>0.0005931793113334432</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1037257264552995</v>
+        <v>0.1052662161258266</v>
       </c>
       <c r="J58" t="n">
-        <v>-2.379633213013933e-05</v>
+        <v>-1.204592080180021e-05</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.001636342300991222</v>
+        <v>-0.001658144293467875</v>
       </c>
       <c r="L58" t="n">
-        <v>0.0006128502128722495</v>
+        <v>0.0006026239341857379</v>
       </c>
       <c r="M58" t="n">
-        <v>-6.014579102410847e-05</v>
+        <v>-6.282017927323414e-05</v>
       </c>
       <c r="N58" t="n">
-        <v>-5.660893540518815e-05</v>
+        <v>-5.114748689219986e-05</v>
       </c>
       <c r="O58" t="n">
-        <v>0.0003655290913059793</v>
+        <v>0.0002972634542256535</v>
       </c>
       <c r="P58" t="n">
-        <v>0.0003811212656804369</v>
+        <v>0.0003707248692937226</v>
       </c>
       <c r="Q58" t="n">
-        <v>4573.451028698367</v>
+        <v>4567.066109050853</v>
       </c>
       <c r="R58" t="n">
-        <v>0.46898</v>
+        <v>0.45743</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9993566223770209</v>
+        <v>0.9993270211271642</v>
       </c>
       <c r="B59" t="n">
-        <v>40.08845480736154</v>
+        <v>39.92477579660844</v>
       </c>
       <c r="C59" t="n">
-        <v>4.759007118330275e-05</v>
+        <v>6.469900786336352e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>0.04340873902345393</v>
+        <v>0.04557356785046074</v>
       </c>
       <c r="E59" t="n">
-        <v>2.315704338960125e-06</v>
+        <v>2.42188010503483e-06</v>
       </c>
       <c r="F59" t="n">
-        <v>0.002552147743951381</v>
+        <v>0.002582307787237702</v>
       </c>
       <c r="G59" t="n">
-        <v>5.174568573128056e-07</v>
+        <v>9.646880524481195e-07</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0005686428593300016</v>
+        <v>0.0005858445923038603</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1029353560690033</v>
+        <v>0.1037257264552995</v>
       </c>
       <c r="J59" t="n">
-        <v>-4.896319931503132e-05</v>
+        <v>-2.379633213013933e-05</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.00161652115455669</v>
+        <v>-0.001636342300991222</v>
       </c>
       <c r="L59" t="n">
-        <v>0.0006364141079478095</v>
+        <v>0.0006128502128722495</v>
       </c>
       <c r="M59" t="n">
-        <v>-5.723548570458122e-05</v>
+        <v>-6.014579102410847e-05</v>
       </c>
       <c r="N59" t="n">
-        <v>-6.008468651925109e-05</v>
+        <v>-5.660893540518815e-05</v>
       </c>
       <c r="O59" t="n">
-        <v>0.0004184181056245381</v>
+        <v>0.0003655290913059793</v>
       </c>
       <c r="P59" t="n">
-        <v>0.0003788951270581626</v>
+        <v>0.0003811212656804369</v>
       </c>
       <c r="Q59" t="n">
-        <v>4579.777301240852</v>
+        <v>4573.451028698367</v>
       </c>
       <c r="R59" t="n">
-        <v>0.48053</v>
+        <v>0.46898</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9993858400699462</v>
+        <v>0.9993566223770209</v>
       </c>
       <c r="B60" t="n">
-        <v>40.24945332307711</v>
+        <v>40.08845480736154</v>
       </c>
       <c r="C60" t="n">
-        <v>3.045727032768936e-05</v>
+        <v>4.759007118330275e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>0.04047980564106116</v>
+        <v>0.04340873902345393</v>
       </c>
       <c r="E60" t="n">
-        <v>2.224123513077915e-06</v>
+        <v>2.315704338960125e-06</v>
       </c>
       <c r="F60" t="n">
-        <v>0.002511271109964454</v>
+        <v>0.002552147743951381</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.352353539101008e-07</v>
+        <v>5.174568573128056e-07</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0005403260415472151</v>
+        <v>0.0005686428593300016</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1017322456809234</v>
+        <v>0.1029353560690033</v>
       </c>
       <c r="J60" t="n">
-        <v>-9.023454264204227e-05</v>
+        <v>-4.896319931503132e-05</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.001596876254714036</v>
+        <v>-0.00161652115455669</v>
       </c>
       <c r="L60" t="n">
-        <v>0.0006306805726562958</v>
+        <v>0.0006364141079478095</v>
       </c>
       <c r="M60" t="n">
-        <v>-5.390882836780393e-05</v>
+        <v>-5.723548570458122e-05</v>
       </c>
       <c r="N60" t="n">
-        <v>-6.170320846391292e-05</v>
+        <v>-6.008468651925109e-05</v>
       </c>
       <c r="O60" t="n">
-        <v>0.0004483180506208498</v>
+        <v>0.0004184181056245381</v>
       </c>
       <c r="P60" t="n">
-        <v>0.0003657853913149693</v>
+        <v>0.0003788951270581626</v>
       </c>
       <c r="Q60" t="n">
-        <v>4586.025363777407</v>
+        <v>4579.777301240852</v>
       </c>
       <c r="R60" t="n">
-        <v>0.49208</v>
+        <v>0.48053</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9994143507051944</v>
+        <v>0.9993858400699462</v>
       </c>
       <c r="B61" t="n">
-        <v>40.40747123800787</v>
+        <v>40.24945332307711</v>
       </c>
       <c r="C61" t="n">
-        <v>1.365444448863849e-05</v>
+        <v>3.045727032768936e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>0.03652828176820955</v>
+        <v>0.04047980564106116</v>
       </c>
       <c r="E61" t="n">
-        <v>2.154580269416567e-06</v>
+        <v>2.224123513077915e-06</v>
       </c>
       <c r="F61" t="n">
-        <v>0.002470174036807706</v>
+        <v>0.002511271109964454</v>
       </c>
       <c r="G61" t="n">
-        <v>-1.349459746321378e-06</v>
+        <v>-3.352353539101008e-07</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0005269920990035547</v>
+        <v>0.0005403260415472151</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1005525765553135</v>
+        <v>0.1017322456809234</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.0001358338856039939</v>
+        <v>-9.023454264204227e-05</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.001570356560592886</v>
+        <v>-0.001596876254714036</v>
       </c>
       <c r="L61" t="n">
-        <v>0.000869841820826095</v>
+        <v>0.0006306805726562958</v>
       </c>
       <c r="M61" t="n">
-        <v>-5.100252946944914e-05</v>
+        <v>-5.390882836780393e-05</v>
       </c>
       <c r="N61" t="n">
-        <v>-6.245114324178387e-05</v>
+        <v>-6.170320846391292e-05</v>
       </c>
       <c r="O61" t="n">
-        <v>0.000459111894268094</v>
+        <v>0.0004483180506208498</v>
       </c>
       <c r="P61" t="n">
-        <v>0.0003762337755536484</v>
+        <v>0.0003657853913149693</v>
       </c>
       <c r="Q61" t="n">
-        <v>4592.18026163236</v>
+        <v>4586.025363777407</v>
       </c>
       <c r="R61" t="n">
-        <v>0.50363</v>
+        <v>0.49208</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9994441881664947</v>
+        <v>0.9994143507051944</v>
       </c>
       <c r="B62" t="n">
-        <v>40.5692523394998</v>
+        <v>40.40747123800787</v>
       </c>
       <c r="C62" t="n">
-        <v>4.753058411847469e-06</v>
+        <v>1.365444448863849e-05</v>
       </c>
       <c r="D62" t="n">
-        <v>0.03104287848053549</v>
+        <v>0.03652828176820955</v>
       </c>
       <c r="E62" t="n">
-        <v>2.06039908629386e-06</v>
+        <v>2.154580269416567e-06</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002425638364293085</v>
+        <v>0.002470174036807706</v>
       </c>
       <c r="G62" t="n">
-        <v>-2.044779891018804e-06</v>
+        <v>-1.349459746321378e-06</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0004968718469831761</v>
+        <v>0.0005269920990035547</v>
       </c>
       <c r="I62" t="n">
-        <v>0.09908879914701421</v>
+        <v>0.1005525765553135</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.0001652894537141351</v>
+        <v>-0.0001358338856039939</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.001542152238689497</v>
+        <v>-0.001570356560592886</v>
       </c>
       <c r="L62" t="n">
-        <v>0.0006449116133970046</v>
+        <v>0.000869841820826095</v>
       </c>
       <c r="M62" t="n">
-        <v>-4.084011479767865e-05</v>
+        <v>-5.100252946944914e-05</v>
       </c>
       <c r="N62" t="n">
-        <v>-6.063225214631189e-05</v>
+        <v>-6.245114324178387e-05</v>
       </c>
       <c r="O62" t="n">
-        <v>0.0004513905553819643</v>
+        <v>0.000459111894268094</v>
       </c>
       <c r="P62" t="n">
-        <v>0.0003650870812297543</v>
+        <v>0.0003762337755536484</v>
       </c>
       <c r="Q62" t="n">
-        <v>4598.502886147251</v>
+        <v>4592.18026163236</v>
       </c>
       <c r="R62" t="n">
-        <v>0.5157</v>
+        <v>0.50363</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9994731269349846</v>
+        <v>0.9994441881664947</v>
       </c>
       <c r="B63" t="n">
-        <v>40.72743264183516</v>
+        <v>40.5692523394998</v>
       </c>
       <c r="C63" t="n">
-        <v>2.208264361088484e-07</v>
+        <v>4.753058411847469e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>0.02405697065115016</v>
+        <v>0.03104287848053549</v>
       </c>
       <c r="E63" t="n">
-        <v>1.965959840206685e-06</v>
+        <v>2.06039908629386e-06</v>
       </c>
       <c r="F63" t="n">
-        <v>0.002376962786664373</v>
+        <v>0.002425638364293085</v>
       </c>
       <c r="G63" t="n">
-        <v>-2.309422069772676e-06</v>
+        <v>-2.044779891018804e-06</v>
       </c>
       <c r="H63" t="n">
-        <v>0.000483003036606147</v>
+        <v>0.0004968718469831761</v>
       </c>
       <c r="I63" t="n">
-        <v>0.09747406921670551</v>
+        <v>0.09908879914701421</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.000176229316353247</v>
+        <v>-0.0001652894537141351</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.001510256877635719</v>
+        <v>-0.001542152238689497</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0006593401992661543</v>
+        <v>0.0006449116133970046</v>
       </c>
       <c r="M63" t="n">
-        <v>-2.754496738065015e-05</v>
+        <v>-4.084011479767865e-05</v>
       </c>
       <c r="N63" t="n">
-        <v>-5.819754394853975e-05</v>
+        <v>-6.063225214631189e-05</v>
       </c>
       <c r="O63" t="n">
-        <v>0.0003951930864194457</v>
+        <v>0.0004513905553819643</v>
       </c>
       <c r="P63" t="n">
-        <v>0.0003752374743822645</v>
+        <v>0.0003650870812297543</v>
       </c>
       <c r="Q63" t="n">
-        <v>4604.705860631434</v>
+        <v>4598.502886147251</v>
       </c>
       <c r="R63" t="n">
-        <v>0.52777</v>
+        <v>0.5157</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9995016222336888</v>
+        <v>0.9994731269349846</v>
       </c>
       <c r="B64" t="n">
-        <v>40.88196369077195</v>
+        <v>40.72743264183516</v>
       </c>
       <c r="C64" t="n">
-        <v>-3.525910386486569e-06</v>
+        <v>2.208264361088484e-07</v>
       </c>
       <c r="D64" t="n">
-        <v>0.01563682174265048</v>
+        <v>0.02405697065115016</v>
       </c>
       <c r="E64" t="n">
-        <v>1.876028473604159e-06</v>
+        <v>1.965959840206685e-06</v>
       </c>
       <c r="F64" t="n">
-        <v>0.00233997348784543</v>
+        <v>0.002376962786664373</v>
       </c>
       <c r="G64" t="n">
-        <v>-1.95727668908382e-06</v>
+        <v>-2.309422069772676e-06</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0004628944053653697</v>
+        <v>0.000483003036606147</v>
       </c>
       <c r="I64" t="n">
-        <v>0.0963105291028042</v>
+        <v>0.09747406921670551</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.0001606694023903827</v>
+        <v>-0.000176229316353247</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.001481545628527564</v>
+        <v>-0.001510256877635719</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0006807466065953349</v>
+        <v>0.0006593401992661543</v>
       </c>
       <c r="M64" t="n">
-        <v>-1.346045143324702e-05</v>
+        <v>-2.754496738065015e-05</v>
       </c>
       <c r="N64" t="n">
-        <v>-5.756719853412992e-05</v>
+        <v>-5.819754394853975e-05</v>
       </c>
       <c r="O64" t="n">
-        <v>0.0003254117589214412</v>
+        <v>0.0003951930864194457</v>
       </c>
       <c r="P64" t="n">
-        <v>0.0003766918322388965</v>
+        <v>0.0003752374743822645</v>
       </c>
       <c r="Q64" t="n">
-        <v>4610.786535551016</v>
+        <v>4604.705860631434</v>
       </c>
       <c r="R64" t="n">
-        <v>0.53984</v>
+        <v>0.52777</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9995296098497879</v>
+        <v>0.9995016222336888</v>
       </c>
       <c r="B65" t="n">
-        <v>41.0329378002013</v>
+        <v>40.88196369077195</v>
       </c>
       <c r="C65" t="n">
-        <v>-8.086203080210307e-06</v>
+        <v>-3.525910386486569e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>0.005933076200068639</v>
+        <v>0.01563682174265048</v>
       </c>
       <c r="E65" t="n">
-        <v>1.802625310519307e-06</v>
+        <v>1.876028473604159e-06</v>
       </c>
       <c r="F65" t="n">
-        <v>0.002290983958261667</v>
+        <v>0.00233997348784543</v>
       </c>
       <c r="G65" t="n">
-        <v>-1.23324532676155e-06</v>
+        <v>-1.95727668908382e-06</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0004372011244285672</v>
+        <v>0.0004628944053653697</v>
       </c>
       <c r="I65" t="n">
-        <v>0.09463650772719744</v>
+        <v>0.0963105291028042</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.0001282208711947695</v>
+        <v>-0.0001606694023903827</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.001456480935624737</v>
+        <v>-0.001481545628527564</v>
       </c>
       <c r="L65" t="n">
-        <v>0.0006851649998685166</v>
+        <v>0.0006807466065953349</v>
       </c>
       <c r="M65" t="n">
-        <v>-8.527339998264099e-07</v>
+        <v>-1.346045143324702e-05</v>
       </c>
       <c r="N65" t="n">
-        <v>-5.863565334232344e-05</v>
+        <v>-5.756719853412992e-05</v>
       </c>
       <c r="O65" t="n">
-        <v>0.0002628960250522717</v>
+        <v>0.0003254117589214412</v>
       </c>
       <c r="P65" t="n">
-        <v>0.0003692152879513849</v>
+        <v>0.0003766918322388965</v>
       </c>
       <c r="Q65" t="n">
-        <v>4616.747712007595</v>
+        <v>4610.786535551016</v>
       </c>
       <c r="R65" t="n">
-        <v>0.55191</v>
+        <v>0.53984</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9995566667383328</v>
+        <v>0.9995296098497879</v>
       </c>
       <c r="B66" t="n">
-        <v>41.18056617408173</v>
+        <v>41.0329378002013</v>
       </c>
       <c r="C66" t="n">
-        <v>-1.32170929065705e-05</v>
+        <v>-8.086203080210307e-06</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.004819138514818994</v>
+        <v>0.005933076200068639</v>
       </c>
       <c r="E66" t="n">
-        <v>1.761625485394859e-06</v>
+        <v>1.802625310519307e-06</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002242875566162138</v>
+        <v>0.002290983958261667</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.147815796446809e-07</v>
+        <v>-1.23324532676155e-06</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0004263463845761257</v>
+        <v>0.0004372011244285672</v>
       </c>
       <c r="I66" t="n">
-        <v>0.09301897486431218</v>
+        <v>0.09463650772719744</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.0001063799340250305</v>
+        <v>-0.0001282208711947695</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.001430009010816802</v>
+        <v>-0.001456480935624737</v>
       </c>
       <c r="L66" t="n">
-        <v>0.0008999324635668452</v>
+        <v>0.0006851649998685166</v>
       </c>
       <c r="M66" t="n">
-        <v>8.231522964754216e-06</v>
+        <v>-8.527339998264099e-07</v>
       </c>
       <c r="N66" t="n">
-        <v>-5.874771304659888e-05</v>
+        <v>-5.863565334232344e-05</v>
       </c>
       <c r="O66" t="n">
-        <v>0.0002020703716395052</v>
+        <v>0.0002628960250522717</v>
       </c>
       <c r="P66" t="n">
-        <v>0.0003795617969028225</v>
+        <v>0.0003692152879513849</v>
       </c>
       <c r="Q66" t="n">
-        <v>4622.597227810654</v>
+        <v>4616.747712007595</v>
       </c>
       <c r="R66" t="n">
-        <v>0.56398</v>
+        <v>0.55191</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9995847832817337</v>
+        <v>0.9995566667383328</v>
       </c>
       <c r="B67" t="n">
-        <v>41.33043595280868</v>
+        <v>41.18056617408173</v>
       </c>
       <c r="C67" t="n">
-        <v>-5.241142442411662e-06</v>
+        <v>-1.32170929065705e-05</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01693446826334741</v>
+        <v>-0.004819138514818994</v>
       </c>
       <c r="E67" t="n">
-        <v>1.661461837645084e-06</v>
+        <v>1.761625485394859e-06</v>
       </c>
       <c r="F67" t="n">
-        <v>0.002188960638114895</v>
+        <v>0.002242875566162138</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.147439129400283e-07</v>
+        <v>-8.147815796446809e-07</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0004005460375754626</v>
+        <v>0.0004263463845761257</v>
       </c>
       <c r="I67" t="n">
-        <v>0.09108584968912842</v>
+        <v>0.09301897486431218</v>
       </c>
       <c r="J67" t="n">
-        <v>-9.666562484141087e-05</v>
+        <v>-0.0001063799340250305</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.001404597561999133</v>
+        <v>-0.001430009010816802</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0006965887558590537</v>
+        <v>0.0008999324635668452</v>
       </c>
       <c r="M67" t="n">
-        <v>1.68693738667162e-05</v>
+        <v>8.231522964754216e-06</v>
       </c>
       <c r="N67" t="n">
-        <v>-5.884867411520244e-05</v>
+        <v>-5.874771304659888e-05</v>
       </c>
       <c r="O67" t="n">
-        <v>0.0001684593766241679</v>
+        <v>0.0002020703716395052</v>
       </c>
       <c r="P67" t="n">
-        <v>0.000372306306408159</v>
+        <v>0.0003795617969028225</v>
       </c>
       <c r="Q67" t="n">
-        <v>4628.55207016172</v>
+        <v>4622.597227810654</v>
       </c>
       <c r="R67" t="n">
-        <v>0.57652</v>
+        <v>0.56398</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9996118660417385</v>
+        <v>0.9995847832817337</v>
       </c>
       <c r="B68" t="n">
-        <v>41.4769116452624</v>
+        <v>41.33043595280868</v>
       </c>
       <c r="C68" t="n">
-        <v>7.961216817802446e-06</v>
+        <v>-5.241142442411662e-06</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.02961624007146025</v>
+        <v>-0.01693446826334741</v>
       </c>
       <c r="E68" t="n">
-        <v>1.579740362110997e-06</v>
+        <v>1.661461837645084e-06</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002131993164488017</v>
+        <v>0.002188960638114895</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.406510629084978e-07</v>
+        <v>-6.147439129400283e-07</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0003881987117114023</v>
+        <v>0.0004005460375754626</v>
       </c>
       <c r="I68" t="n">
-        <v>0.08904111929697155</v>
+        <v>0.09108584968912842</v>
       </c>
       <c r="J68" t="n">
-        <v>-9.9824497074184e-05</v>
+        <v>-9.666562484141087e-05</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.001377839842207188</v>
+        <v>-0.001404597561999133</v>
       </c>
       <c r="L68" t="n">
-        <v>0.0007095364879585674</v>
+        <v>0.0006965887558590537</v>
       </c>
       <c r="M68" t="n">
-        <v>2.565571516654403e-05</v>
+        <v>1.68693738667162e-05</v>
       </c>
       <c r="N68" t="n">
-        <v>-5.763999633767152e-05</v>
+        <v>-5.884867411520244e-05</v>
       </c>
       <c r="O68" t="n">
-        <v>0.0001111117100338742</v>
+        <v>0.0001684593766241679</v>
       </c>
       <c r="P68" t="n">
-        <v>0.0003826653483597916</v>
+        <v>0.000372306306408159</v>
       </c>
       <c r="Q68" t="n">
-        <v>4634.391993110884</v>
+        <v>4628.55207016172</v>
       </c>
       <c r="R68" t="n">
-        <v>0.58906</v>
+        <v>0.57652</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.999638267830524</v>
+        <v>0.9996118660417385</v>
       </c>
       <c r="B69" t="n">
-        <v>41.62031923263132</v>
+        <v>41.4769116452624</v>
       </c>
       <c r="C69" t="n">
-        <v>2.135496904821002e-05</v>
+        <v>7.961216817802446e-06</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.0424020912492897</v>
+        <v>-0.02961624007146025</v>
       </c>
       <c r="E69" t="n">
-        <v>1.50186207916165e-06</v>
+        <v>1.579740362110997e-06</v>
       </c>
       <c r="F69" t="n">
-        <v>0.002084398985208119</v>
+        <v>0.002131993164488017</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.32588284141731e-07</v>
+        <v>-7.406510629084978e-07</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0003686684384280965</v>
+        <v>0.0003881987117114023</v>
       </c>
       <c r="I69" t="n">
-        <v>0.08736890018028004</v>
+        <v>0.08904111929697155</v>
       </c>
       <c r="J69" t="n">
-        <v>-9.975986724891383e-05</v>
+        <v>-9.9824497074184e-05</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.001354203403104257</v>
+        <v>-0.001377839842207188</v>
       </c>
       <c r="L69" t="n">
-        <v>0.0007266693602663669</v>
+        <v>0.0007095364879585674</v>
       </c>
       <c r="M69" t="n">
-        <v>3.274565455743002e-05</v>
+        <v>2.565571516654403e-05</v>
       </c>
       <c r="N69" t="n">
-        <v>-5.60466831099326e-05</v>
+        <v>-5.763999633767152e-05</v>
       </c>
       <c r="O69" t="n">
-        <v>4.369218994421988e-05</v>
+        <v>0.0001111117100338742</v>
       </c>
       <c r="P69" t="n">
-        <v>0.0003827132464442469</v>
+        <v>0.0003826653483597916</v>
       </c>
       <c r="Q69" t="n">
-        <v>4640.129435361894</v>
+        <v>4634.391993110884</v>
       </c>
       <c r="R69" t="n">
-        <v>0.6016100000000001</v>
+        <v>0.58906</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9996640125845659</v>
+        <v>0.999638267830524</v>
       </c>
       <c r="B70" t="n">
-        <v>41.7608669288053</v>
+        <v>41.62031923263132</v>
       </c>
       <c r="C70" t="n">
-        <v>3.194232059428909e-05</v>
+        <v>2.135496904821002e-05</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.05490024470095731</v>
+        <v>-0.0424020912492897</v>
       </c>
       <c r="E70" t="n">
-        <v>1.439030354823415e-06</v>
+        <v>1.50186207916165e-06</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002022034070060773</v>
+        <v>0.002084398985208119</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.892922298949389e-07</v>
+        <v>-8.32588284141731e-07</v>
       </c>
       <c r="H70" t="n">
-        <v>0.000343323757563032</v>
+        <v>0.0003686684384280965</v>
       </c>
       <c r="I70" t="n">
-        <v>0.08505262640306284</v>
+        <v>0.08736890018028004</v>
       </c>
       <c r="J70" t="n">
-        <v>-9.311860270611161e-05</v>
+        <v>-9.975986724891383e-05</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.001333714388720075</v>
+        <v>-0.001354203403104257</v>
       </c>
       <c r="L70" t="n">
-        <v>0.0007296976148723148</v>
+        <v>0.0007266693602663669</v>
       </c>
       <c r="M70" t="n">
-        <v>3.624509146085757e-05</v>
+        <v>3.274565455743002e-05</v>
       </c>
       <c r="N70" t="n">
-        <v>-5.540427680525136e-05</v>
+        <v>-5.60466831099326e-05</v>
       </c>
       <c r="O70" t="n">
-        <v>-1.956872193938004e-05</v>
+        <v>4.369218994421988e-05</v>
       </c>
       <c r="P70" t="n">
-        <v>0.0003727612355051161</v>
+        <v>0.0003827132464442469</v>
       </c>
       <c r="Q70" t="n">
-        <v>4645.771071939189</v>
+        <v>4640.129435361894</v>
       </c>
       <c r="R70" t="n">
-        <v>0.61415</v>
+        <v>0.6016100000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9996887802430913</v>
+        <v>0.9996640125845659</v>
       </c>
       <c r="B71" t="n">
-        <v>41.89864459112106</v>
+        <v>41.7608669288053</v>
       </c>
       <c r="C71" t="n">
-        <v>3.892637338201794e-05</v>
+        <v>3.194232059428909e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.06678927685803741</v>
+        <v>-0.05490024470095731</v>
       </c>
       <c r="E71" t="n">
-        <v>1.424804210666165e-06</v>
+        <v>1.439030354823415e-06</v>
       </c>
       <c r="F71" t="n">
-        <v>0.001957655246674693</v>
+        <v>0.002022034070060773</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.114722024230314e-07</v>
+        <v>-7.892922298949389e-07</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0003327066400952406</v>
+        <v>0.000343323757563032</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0826296135565175</v>
+        <v>0.08505262640306284</v>
       </c>
       <c r="J71" t="n">
-        <v>-8.728102028496826e-05</v>
+        <v>-9.311860270611161e-05</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.001312954668807094</v>
+        <v>-0.001333714388720075</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0009174091485865538</v>
+        <v>0.0007296976148723148</v>
       </c>
       <c r="M71" t="n">
-        <v>3.477031234156816e-05</v>
+        <v>3.624509146085757e-05</v>
       </c>
       <c r="N71" t="n">
-        <v>-5.744966831802476e-05</v>
+        <v>-5.540427680525136e-05</v>
       </c>
       <c r="O71" t="n">
-        <v>-7.200739725854101e-05</v>
+        <v>-1.956872193938004e-05</v>
       </c>
       <c r="P71" t="n">
-        <v>0.0003783187575528211</v>
+        <v>0.0003727612355051161</v>
       </c>
       <c r="Q71" t="n">
-        <v>4651.317957512362</v>
+        <v>4645.771071939189</v>
       </c>
       <c r="R71" t="n">
-        <v>0.62669</v>
+        <v>0.61415</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9997139988246759</v>
+        <v>0.9996887802430913</v>
       </c>
       <c r="B72" t="n">
-        <v>42.03782064206448</v>
+        <v>41.89864459112106</v>
       </c>
       <c r="C72" t="n">
-        <v>4.466704132665086e-05</v>
+        <v>3.892637338201794e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.07795783409660907</v>
+        <v>-0.06678927685803741</v>
       </c>
       <c r="E72" t="n">
-        <v>1.333992394716489e-06</v>
+        <v>1.424804210666165e-06</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001899764512383901</v>
+        <v>0.001957655246674693</v>
       </c>
       <c r="G72" t="n">
-        <v>-1.164336076983716e-06</v>
+        <v>-7.114722024230314e-07</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0003097069034431655</v>
+        <v>0.0003327066400952406</v>
       </c>
       <c r="I72" t="n">
-        <v>0.08042101046006447</v>
+        <v>0.0826296135565175</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.0001060083909090764</v>
+        <v>-8.728102028496826e-05</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.001292975700416619</v>
+        <v>-0.001312954668807094</v>
       </c>
       <c r="L72" t="n">
-        <v>0.0007548749697957915</v>
+        <v>0.0009174091485865538</v>
       </c>
       <c r="M72" t="n">
-        <v>2.958939342252417e-05</v>
+        <v>3.477031234156816e-05</v>
       </c>
       <c r="N72" t="n">
-        <v>-5.980492623634362e-05</v>
+        <v>-5.744966831802476e-05</v>
       </c>
       <c r="O72" t="n">
-        <v>-9.977306895925701e-05</v>
+        <v>-7.200739725854101e-05</v>
       </c>
       <c r="P72" t="n">
-        <v>0.0003678032809149053</v>
+        <v>0.0003783187575528211</v>
       </c>
       <c r="Q72" t="n">
-        <v>4656.935113071436</v>
+        <v>4651.317957512362</v>
       </c>
       <c r="R72" t="n">
-        <v>0.63966</v>
+        <v>0.62669</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9997382334307993</v>
+        <v>0.9997139988246759</v>
       </c>
       <c r="B73" t="n">
-        <v>42.17364721489636</v>
+        <v>42.03782064206448</v>
       </c>
       <c r="C73" t="n">
-        <v>3.883915925081811e-05</v>
+        <v>4.466704132665086e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.08766322668547503</v>
+        <v>-0.07795783409660907</v>
       </c>
       <c r="E73" t="n">
-        <v>1.266437207831957e-06</v>
+        <v>1.333992394716489e-06</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001850733149868134</v>
+        <v>0.001899764512383901</v>
       </c>
       <c r="G73" t="n">
-        <v>-1.581495335104921e-06</v>
+        <v>-1.164336076983716e-06</v>
       </c>
       <c r="H73" t="n">
-        <v>0.0002978685446115809</v>
+        <v>0.0003097069034431655</v>
       </c>
       <c r="I73" t="n">
-        <v>0.07859768102855176</v>
+        <v>0.08042101046006447</v>
       </c>
       <c r="J73" t="n">
-        <v>-0.0001243991107222827</v>
+        <v>-0.0001060083909090764</v>
       </c>
       <c r="K73" t="n">
-        <v>-0.001271085577039458</v>
+        <v>-0.001292975700416619</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0007696439412626292</v>
+        <v>0.0007548749697957915</v>
       </c>
       <c r="M73" t="n">
-        <v>2.285358280192129e-05</v>
+        <v>2.958939342252417e-05</v>
       </c>
       <c r="N73" t="n">
-        <v>-6.17825246694043e-05</v>
+        <v>-5.980492623634362e-05</v>
       </c>
       <c r="O73" t="n">
-        <v>-0.000103368833240767</v>
+        <v>-9.977306895925701e-05</v>
       </c>
       <c r="P73" t="n">
-        <v>0.0003698716133762294</v>
+        <v>0.0003678032809149053</v>
       </c>
       <c r="Q73" t="n">
-        <v>4662.435029891666</v>
+        <v>4656.935113071436</v>
       </c>
       <c r="R73" t="n">
-        <v>0.65262</v>
+        <v>0.63966</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9997621608760464</v>
+        <v>0.9997382334307993</v>
       </c>
       <c r="B74" t="n">
-        <v>42.30588967880848</v>
+        <v>42.17364721489636</v>
       </c>
       <c r="C74" t="n">
-        <v>2.741725276551452e-05</v>
+        <v>3.883915925081811e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.09589573329124941</v>
+        <v>-0.08766322668547503</v>
       </c>
       <c r="E74" t="n">
-        <v>1.207334136085025e-06</v>
+        <v>1.266437207831957e-06</v>
       </c>
       <c r="F74" t="n">
-        <v>0.001817323241314069</v>
+        <v>0.001850733149868134</v>
       </c>
       <c r="G74" t="n">
-        <v>-1.955657810301285e-06</v>
+        <v>-1.581495335104921e-06</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0002810591658936045</v>
+        <v>0.0002978685446115809</v>
       </c>
       <c r="I74" t="n">
-        <v>0.07742853728707207</v>
+        <v>0.07859768102855176</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.0001410386994144083</v>
+        <v>-0.0001243991107222827</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.001247086167010664</v>
+        <v>-0.001271085577039458</v>
       </c>
       <c r="L74" t="n">
-        <v>0.0007895994182388615</v>
+        <v>0.0007696439412626292</v>
       </c>
       <c r="M74" t="n">
-        <v>1.651445040493732e-05</v>
+        <v>2.285358280192129e-05</v>
       </c>
       <c r="N74" t="n">
-        <v>-6.330865971523876e-05</v>
+        <v>-6.17825246694043e-05</v>
       </c>
       <c r="O74" t="n">
-        <v>-0.0001025282082879607</v>
+        <v>-0.000103368833240767</v>
       </c>
       <c r="P74" t="n">
-        <v>0.0003636256641920285</v>
+        <v>0.0003698716133762294</v>
       </c>
       <c r="Q74" t="n">
-        <v>4667.808511034737</v>
+        <v>4662.435029891666</v>
       </c>
       <c r="R74" t="n">
-        <v>0.6655800000000001</v>
+        <v>0.65262</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.99978534872721</v>
+        <v>0.9997621608760464</v>
       </c>
       <c r="B75" t="n">
-        <v>42.43443379008523</v>
+        <v>42.30588967880848</v>
       </c>
       <c r="C75" t="n">
-        <v>1.720442491065626e-05</v>
+        <v>2.741725276551452e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.1027324504477116</v>
+        <v>-0.09589573329124941</v>
       </c>
       <c r="E75" t="n">
-        <v>1.167448693676614e-06</v>
+        <v>1.207334136085025e-06</v>
       </c>
       <c r="F75" t="n">
-        <v>0.001769394744008715</v>
+        <v>0.001817323241314069</v>
       </c>
       <c r="G75" t="n">
-        <v>-2.357651091949033e-06</v>
+        <v>-1.955657810301285e-06</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0002600043198592637</v>
+        <v>0.0002810591658936045</v>
       </c>
       <c r="I75" t="n">
-        <v>0.07562897016620163</v>
+        <v>0.07742853728707207</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.0001577985195286919</v>
+        <v>-0.0001410386994144083</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.001219615708729886</v>
+        <v>-0.001247086167010664</v>
       </c>
       <c r="L75" t="n">
-        <v>0.000795013834775733</v>
+        <v>0.0007895994182388615</v>
       </c>
       <c r="M75" t="n">
-        <v>1.095951362878875e-05</v>
+        <v>1.651445040493732e-05</v>
       </c>
       <c r="N75" t="n">
-        <v>-6.4634339088686e-05</v>
+        <v>-6.330865971523876e-05</v>
       </c>
       <c r="O75" t="n">
-        <v>-0.0001094758877679754</v>
+        <v>-0.0001025282082879607</v>
       </c>
       <c r="P75" t="n">
-        <v>0.0003492482136440782</v>
+        <v>0.0003636256641920285</v>
       </c>
       <c r="Q75" t="n">
-        <v>4673.050625354968</v>
+        <v>4667.808511034737</v>
       </c>
       <c r="R75" t="n">
-        <v>0.67855</v>
+        <v>0.6655800000000001</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.999807711128311</v>
+        <v>0.99978534872721</v>
       </c>
       <c r="B76" t="n">
-        <v>42.55930143077374</v>
+        <v>42.43443379008523</v>
       </c>
       <c r="C76" t="n">
-        <v>1.598135452061756e-05</v>
+        <v>1.720442491065626e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.1083368433562322</v>
+        <v>-0.1027324504477116</v>
       </c>
       <c r="E76" t="n">
-        <v>1.180011923274417e-06</v>
+        <v>1.167448693676614e-06</v>
       </c>
       <c r="F76" t="n">
-        <v>0.001711555642629859</v>
+        <v>0.001769394744008715</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.952930149585057e-06</v>
+        <v>-2.357651091949033e-06</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0002500084772467897</v>
+        <v>0.0002600043198592637</v>
       </c>
       <c r="I76" t="n">
-        <v>0.07338696259587331</v>
+        <v>0.07562897016620163</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.0001804730180882034</v>
+        <v>-0.0001577985195286919</v>
       </c>
       <c r="K76" t="n">
-        <v>-0.001187106542755991</v>
+        <v>-0.001219615708729886</v>
       </c>
       <c r="L76" t="n">
-        <v>0.0009519921907496511</v>
+        <v>0.000795013834775733</v>
       </c>
       <c r="M76" t="n">
-        <v>5.388152795103054e-06</v>
+        <v>1.095951362878875e-05</v>
       </c>
       <c r="N76" t="n">
-        <v>-6.582954985278351e-05</v>
+        <v>-6.4634339088686e-05</v>
       </c>
       <c r="O76" t="n">
-        <v>-0.0001291793533709154</v>
+        <v>-0.0001094758877679754</v>
       </c>
       <c r="P76" t="n">
-        <v>0.0003457898704647865</v>
+        <v>0.0003492482136440782</v>
       </c>
       <c r="Q76" t="n">
-        <v>4678.158468328839</v>
+        <v>4673.050625354968</v>
       </c>
       <c r="R76" t="n">
-        <v>0.6915100000000001</v>
+        <v>0.67855</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9998302334881318</v>
+        <v>0.999807711128311</v>
       </c>
       <c r="B77" t="n">
-        <v>42.68380774694543</v>
+        <v>42.55930143077374</v>
       </c>
       <c r="C77" t="n">
-        <v>3.396195001847285e-05</v>
+        <v>1.598135452061756e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.1130221800891048</v>
+        <v>-0.1083368433562322</v>
       </c>
       <c r="E77" t="n">
-        <v>1.065321283965858e-06</v>
+        <v>1.180011923274417e-06</v>
       </c>
       <c r="F77" t="n">
-        <v>0.001651727815760807</v>
+        <v>0.001711555642629859</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.337316223429079e-06</v>
+        <v>-2.952930149585057e-06</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0002293105035105238</v>
+        <v>0.0002500084772467897</v>
       </c>
       <c r="I77" t="n">
-        <v>0.07099359741492439</v>
+        <v>0.07338696259587331</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.000192366198534301</v>
+        <v>-0.0001804730180882034</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.001150301264588031</v>
+        <v>-0.001187106542755991</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0008165082889620678</v>
+        <v>0.0009519921907496511</v>
       </c>
       <c r="M77" t="n">
-        <v>-1.586893234067832e-06</v>
+        <v>5.388152795103054e-06</v>
       </c>
       <c r="N77" t="n">
-        <v>-6.622697789605867e-05</v>
+        <v>-6.582954985278351e-05</v>
       </c>
       <c r="O77" t="n">
-        <v>-0.0001464997113267862</v>
+        <v>-0.0001291793533709154</v>
       </c>
       <c r="P77" t="n">
-        <v>0.0003314399359448609</v>
+        <v>0.0003457898704647865</v>
       </c>
       <c r="Q77" t="n">
-        <v>4683.263432518637</v>
+        <v>4678.158468328839</v>
       </c>
       <c r="R77" t="n">
-        <v>0.7048300000000001</v>
+        <v>0.6915100000000001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9998519240912741</v>
+        <v>0.9998302334881318</v>
       </c>
       <c r="B78" t="n">
-        <v>42.80449017537489</v>
+        <v>42.68380774694543</v>
       </c>
       <c r="C78" t="n">
-        <v>5.243463614885541e-05</v>
+        <v>3.396195001847285e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.1169837680476364</v>
+        <v>-0.1130221800891048</v>
       </c>
       <c r="E78" t="n">
-        <v>1.000192253094542e-06</v>
+        <v>1.065321283965858e-06</v>
       </c>
       <c r="F78" t="n">
-        <v>0.001599029592363261</v>
+        <v>0.001651727815760807</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.136184495045005e-06</v>
+        <v>-3.337316223429079e-06</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0002214526614050695</v>
+        <v>0.0002293105035105238</v>
       </c>
       <c r="I78" t="n">
-        <v>0.06892103147415561</v>
+        <v>0.07099359741492439</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.0001776556037678049</v>
+        <v>-0.000192366198534301</v>
       </c>
       <c r="K78" t="n">
-        <v>-0.001111773136283428</v>
+        <v>-0.001150301264588031</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0008308410653045332</v>
+        <v>0.0008165082889620678</v>
       </c>
       <c r="M78" t="n">
-        <v>-9.926428502091055e-06</v>
+        <v>-1.586893234067832e-06</v>
       </c>
       <c r="N78" t="n">
-        <v>-6.429150347297234e-05</v>
+        <v>-6.622697789605867e-05</v>
       </c>
       <c r="O78" t="n">
-        <v>-0.00016418852228708</v>
+        <v>-0.0001464997113267862</v>
       </c>
       <c r="P78" t="n">
-        <v>0.0003325217397761708</v>
+        <v>0.0003314399359448609</v>
       </c>
       <c r="Q78" t="n">
-        <v>4688.224002537114</v>
+        <v>4683.263432518637</v>
       </c>
       <c r="R78" t="n">
-        <v>0.71816</v>
+        <v>0.7048300000000001</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9998729848927875</v>
+        <v>0.9998519240912741</v>
       </c>
       <c r="B79" t="n">
-        <v>42.92132722419701</v>
+        <v>42.80449017537489</v>
       </c>
       <c r="C79" t="n">
-        <v>5.645722253861939e-05</v>
+        <v>5.243463614885541e-05</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.1205631985149193</v>
+        <v>-0.1169837680476364</v>
       </c>
       <c r="E79" t="n">
-        <v>9.539507945953732e-07</v>
+        <v>1.000192253094542e-06</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001561802106983144</v>
+        <v>0.001599029592363261</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.469114530688858e-06</v>
+        <v>-3.136184495045005e-06</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0002099749700196763</v>
+        <v>0.0002214526614050695</v>
       </c>
       <c r="I79" t="n">
-        <v>0.06750742578577891</v>
+        <v>0.06892103147415561</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.0001426288705274386</v>
+        <v>-0.0001776556037678049</v>
       </c>
       <c r="K79" t="n">
-        <v>-0.001071478418154136</v>
+        <v>-0.001111773136283428</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0008527572301959508</v>
+        <v>0.0008308410653045332</v>
       </c>
       <c r="M79" t="n">
-        <v>-1.733176471223674e-05</v>
+        <v>-9.926428502091055e-06</v>
       </c>
       <c r="N79" t="n">
-        <v>-6.102045768875494e-05</v>
+        <v>-6.429150347297234e-05</v>
       </c>
       <c r="O79" t="n">
-        <v>-0.0001832170426493442</v>
+        <v>-0.00016418852228708</v>
       </c>
       <c r="P79" t="n">
-        <v>0.000330666989775271</v>
+        <v>0.0003325217397761708</v>
       </c>
       <c r="Q79" t="n">
-        <v>4693.039152545624</v>
+        <v>4688.224002537114</v>
       </c>
       <c r="R79" t="n">
-        <v>0.73148</v>
+        <v>0.71816</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9998935742747392</v>
+        <v>0.9998729848927875</v>
       </c>
       <c r="B80" t="n">
-        <v>43.03438447585012</v>
+        <v>42.92132722419701</v>
       </c>
       <c r="C80" t="n">
-        <v>4.057986200614182e-05</v>
+        <v>5.645722253861939e-05</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.1239313304403444</v>
+        <v>-0.1205631985149193</v>
       </c>
       <c r="E80" t="n">
-        <v>9.284579082485667e-07</v>
+        <v>9.539507945953732e-07</v>
       </c>
       <c r="F80" t="n">
-        <v>0.001513640151502122</v>
+        <v>0.001561802106983144</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.530482374223139e-06</v>
+        <v>-2.469114530688858e-06</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0001939147656834716</v>
+        <v>0.0002099749700196763</v>
       </c>
       <c r="I80" t="n">
-        <v>0.06560658495139446</v>
+        <v>0.06750742578577891</v>
       </c>
       <c r="J80" t="n">
-        <v>-9.615429141366933e-05</v>
+        <v>-0.0001426288705274386</v>
       </c>
       <c r="K80" t="n">
-        <v>-0.001029149409949165</v>
+        <v>-0.001071478418154136</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0008548339711169718</v>
+        <v>0.0008527572301959508</v>
       </c>
       <c r="M80" t="n">
-        <v>-2.220707824195189e-05</v>
+        <v>-1.733176471223674e-05</v>
       </c>
       <c r="N80" t="n">
-        <v>-5.698653835422001e-05</v>
+        <v>-6.102045768875494e-05</v>
       </c>
       <c r="O80" t="n">
-        <v>-0.000200510797019885</v>
+        <v>-0.0001832170426493442</v>
       </c>
       <c r="P80" t="n">
-        <v>0.000322858364259323</v>
+        <v>0.000330666989775271</v>
       </c>
       <c r="Q80" t="n">
-        <v>4697.71016490199</v>
+        <v>4693.039152545624</v>
       </c>
       <c r="R80" t="n">
-        <v>0.7448</v>
+        <v>0.73148</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9999121441778465</v>
+        <v>0.9998935742747392</v>
       </c>
       <c r="B81" t="n">
-        <v>43.14379202818229</v>
+        <v>43.03438447585012</v>
       </c>
       <c r="C81" t="n">
-        <v>9.055606016924936e-06</v>
+        <v>4.057986200614182e-05</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.1270882721662108</v>
+        <v>-0.1239313304403444</v>
       </c>
       <c r="E81" t="n">
-        <v>9.558256432458288e-07</v>
+        <v>9.284579082485667e-07</v>
       </c>
       <c r="F81" t="n">
-        <v>0.001455183347953217</v>
+        <v>0.001513640151502122</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.964440823416918e-07</v>
+        <v>-1.530482374223139e-06</v>
       </c>
       <c r="H81" t="n">
-        <v>0.0001865483686094182</v>
+        <v>0.0001939147656834716</v>
       </c>
       <c r="I81" t="n">
-        <v>0.06323645196301392</v>
+        <v>0.06560658495139446</v>
       </c>
       <c r="J81" t="n">
-        <v>-4.995901366959066e-05</v>
+        <v>-9.615429141366933e-05</v>
       </c>
       <c r="K81" t="n">
-        <v>-0.0009847672697368421</v>
+        <v>-0.001029149409949165</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0009733316866749679</v>
+        <v>0.0008548339711169718</v>
       </c>
       <c r="M81" t="n">
-        <v>-2.378651917092642e-05</v>
+        <v>-2.220707824195189e-05</v>
       </c>
       <c r="N81" t="n">
-        <v>-5.217867612491638e-05</v>
+        <v>-5.698653835422001e-05</v>
       </c>
       <c r="O81" t="n">
-        <v>-0.0002093934962407033</v>
+        <v>-0.000200510797019885</v>
       </c>
       <c r="P81" t="n">
-        <v>0.0003203592207809235</v>
+        <v>0.000322858364259323</v>
       </c>
       <c r="Q81" t="n">
-        <v>4702.242914243001</v>
+        <v>4697.71016490199</v>
       </c>
       <c r="R81" t="n">
-        <v>0.75812</v>
+        <v>0.7448</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9999293385219586</v>
+        <v>0.9999121441778465</v>
       </c>
       <c r="B82" t="n">
-        <v>43.25177056657621</v>
+        <v>43.14379202818229</v>
       </c>
       <c r="C82" t="n">
-        <v>-1.277049325542395e-05</v>
+        <v>9.055606016924936e-06</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.1302704765694158</v>
+        <v>-0.1270882721662108</v>
       </c>
       <c r="E82" t="n">
-        <v>8.576562465496072e-07</v>
+        <v>9.558256432458288e-07</v>
       </c>
       <c r="F82" t="n">
-        <v>0.001374065349873867</v>
+        <v>0.001455183347953217</v>
       </c>
       <c r="G82" t="n">
-        <v>1.942875403938792e-07</v>
+        <v>-5.964440823416918e-07</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0001696509663138481</v>
+        <v>0.0001865483686094182</v>
       </c>
       <c r="I82" t="n">
-        <v>0.05980785307495318</v>
+        <v>0.06323645196301392</v>
       </c>
       <c r="J82" t="n">
-        <v>-9.156995983864086e-06</v>
+        <v>-4.995901366959066e-05</v>
       </c>
       <c r="K82" t="n">
-        <v>-0.0009378624269802138</v>
+        <v>-0.0009847672697368421</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0008569331841378249</v>
+        <v>0.0009733316866749679</v>
       </c>
       <c r="M82" t="n">
-        <v>-2.180142836592548e-05</v>
+        <v>-2.378651917092642e-05</v>
       </c>
       <c r="N82" t="n">
-        <v>-4.720265355229714e-05</v>
+        <v>-5.217867612491638e-05</v>
       </c>
       <c r="O82" t="n">
-        <v>-0.0002107238381757157</v>
+        <v>-0.0002093934962407033</v>
       </c>
       <c r="P82" t="n">
-        <v>0.0003087554780848829</v>
+        <v>0.0003203592207809235</v>
       </c>
       <c r="Q82" t="n">
-        <v>4706.727049539821</v>
+        <v>4702.242914243001</v>
       </c>
       <c r="R82" t="n">
-        <v>0.77173</v>
+        <v>0.75812</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9999464660016053</v>
+        <v>0.9999293385219586</v>
       </c>
       <c r="B83" t="n">
-        <v>43.35562866293366</v>
+        <v>43.25177056657621</v>
       </c>
       <c r="C83" t="n">
-        <v>-2.256435585400366e-05</v>
+        <v>-1.277049325542395e-05</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.1332703502741547</v>
+        <v>-0.1302704765694158</v>
       </c>
       <c r="E83" t="n">
-        <v>8.100947543054122e-07</v>
+        <v>8.576562465496072e-07</v>
       </c>
       <c r="F83" t="n">
-        <v>0.001288922897030157</v>
+        <v>0.001374065349873867</v>
       </c>
       <c r="G83" t="n">
-        <v>4.200124467979598e-07</v>
+        <v>1.942875403938792e-07</v>
       </c>
       <c r="H83" t="n">
-        <v>0.000164107037600651</v>
+        <v>0.0001696509663138481</v>
       </c>
       <c r="I83" t="n">
-        <v>0.05619384299073756</v>
+        <v>0.05980785307495318</v>
       </c>
       <c r="J83" t="n">
-        <v>4.663178442998444e-06</v>
+        <v>-9.156995983864086e-06</v>
       </c>
       <c r="K83" t="n">
-        <v>-0.0008897540367917799</v>
+        <v>-0.0009378624269802138</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0008612593917105422</v>
+        <v>0.0008569331841378249</v>
       </c>
       <c r="M83" t="n">
-        <v>-1.670414163330212e-05</v>
+        <v>-2.180142836592548e-05</v>
       </c>
       <c r="N83" t="n">
-        <v>-4.371101037378645e-05</v>
+        <v>-4.720265355229714e-05</v>
       </c>
       <c r="O83" t="n">
-        <v>-0.0002089845026517172</v>
+        <v>-0.0002107238381757157</v>
       </c>
       <c r="P83" t="n">
-        <v>0.0003080700271812278</v>
+        <v>0.0003087554780848829</v>
       </c>
       <c r="Q83" t="n">
-        <v>4711.048337481063</v>
+        <v>4706.727049539821</v>
       </c>
       <c r="R83" t="n">
-        <v>0.7853399999999999</v>
+        <v>0.77173</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9999619283912394</v>
+        <v>0.9999464660016053</v>
       </c>
       <c r="B84" t="n">
-        <v>43.45504084171029</v>
+        <v>43.35562866293366</v>
       </c>
       <c r="C84" t="n">
-        <v>-2.718709074042227e-05</v>
+        <v>-2.256435585400366e-05</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.1362338169575354</v>
+        <v>-0.1332703502741547</v>
       </c>
       <c r="E84" t="n">
-        <v>7.765415349382239e-07</v>
+        <v>8.100947543054122e-07</v>
       </c>
       <c r="F84" t="n">
-        <v>0.001209372060686848</v>
+        <v>0.001288922897030157</v>
       </c>
       <c r="G84" t="n">
-        <v>5.286749143002537e-07</v>
+        <v>4.200124467979598e-07</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0001567773163599342</v>
+        <v>0.000164107037600651</v>
       </c>
       <c r="I84" t="n">
-        <v>0.0528063780274943</v>
+        <v>0.05619384299073756</v>
       </c>
       <c r="J84" t="n">
-        <v>1.097128393333772e-05</v>
+        <v>4.663178442998444e-06</v>
       </c>
       <c r="K84" t="n">
-        <v>-0.000841542479360165</v>
+        <v>-0.0008897540367917799</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0008746637465050837</v>
+        <v>0.0008612593917105422</v>
       </c>
       <c r="M84" t="n">
-        <v>-9.319791427834631e-06</v>
+        <v>-1.670414163330212e-05</v>
       </c>
       <c r="N84" t="n">
-        <v>-4.180078370609337e-05</v>
+        <v>-4.371101037378645e-05</v>
       </c>
       <c r="O84" t="n">
-        <v>-0.0001971245890379201</v>
+        <v>-0.0002089845026517172</v>
       </c>
       <c r="P84" t="n">
-        <v>0.0003046867091765804</v>
+        <v>0.0003080700271812278</v>
       </c>
       <c r="Q84" t="n">
-        <v>4715.196467233008</v>
+        <v>4711.048337481063</v>
       </c>
       <c r="R84" t="n">
-        <v>0.79895</v>
+        <v>0.7853399999999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9999757567939455</v>
+        <v>0.9999619283912394</v>
       </c>
       <c r="B85" t="n">
-        <v>43.54983292244773</v>
+        <v>43.45504084171029</v>
       </c>
       <c r="C85" t="n">
-        <v>-2.878409275742458e-05</v>
+        <v>-2.718709074042227e-05</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.1393423362714281</v>
+        <v>-0.1362338169575354</v>
       </c>
       <c r="E85" t="n">
-        <v>7.629136067020698e-07</v>
+        <v>7.765415349382239e-07</v>
       </c>
       <c r="F85" t="n">
-        <v>0.001117984645109506</v>
+        <v>0.001209372060686848</v>
       </c>
       <c r="G85" t="n">
-        <v>7.382153686589833e-07</v>
+        <v>5.286749143002537e-07</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0001479673371994881</v>
+        <v>0.0001567773163599342</v>
       </c>
       <c r="I85" t="n">
-        <v>0.04888963490106894</v>
+        <v>0.0528063780274943</v>
       </c>
       <c r="J85" t="n">
-        <v>2.067980945244712e-05</v>
+        <v>1.097128393333772e-05</v>
       </c>
       <c r="K85" t="n">
-        <v>-0.0007934568952337269</v>
+        <v>-0.000841542479360165</v>
       </c>
       <c r="L85" t="n">
-        <v>0.000876570455605244</v>
+        <v>0.0008746637465050837</v>
       </c>
       <c r="M85" t="n">
-        <v>-6.338710583728297e-07</v>
+        <v>-9.319791427834631e-06</v>
       </c>
       <c r="N85" t="n">
-        <v>-4.100457320927454e-05</v>
+        <v>-4.180078370609337e-05</v>
       </c>
       <c r="O85" t="n">
-        <v>-0.0001729430349179025</v>
+        <v>-0.0001971245890379201</v>
       </c>
       <c r="P85" t="n">
-        <v>0.0002977370384919861</v>
+        <v>0.0003046867091765804</v>
       </c>
       <c r="Q85" t="n">
-        <v>4719.163416832292</v>
+        <v>4715.196467233008</v>
       </c>
       <c r="R85" t="n">
-        <v>0.8125600000000001</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>0.9999962079320034</v>
-      </c>
-      <c r="B86" t="n">
-        <v>43.63996732424289</v>
-      </c>
-      <c r="C86" t="n">
-        <v>-2.453104316412885e-05</v>
-      </c>
-      <c r="D86" t="n">
-        <v>-0.1428128612080965</v>
-      </c>
-      <c r="E86" t="n">
-        <v>8.14195236696408e-07</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.001024337181085884</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1.04458935572727e-06</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0.0001502801119782904</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.04486287377849126</v>
-      </c>
-      <c r="J86" t="n">
-        <v>3.638226947462386e-05</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-0.0007452038989539934</v>
-      </c>
-      <c r="L86" t="n">
-        <v>0.0009737978831149906</v>
-      </c>
-      <c r="M86" t="n">
-        <v>7.989531267206232e-06</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-4.044070354635183e-05</v>
-      </c>
-      <c r="O86" t="n">
-        <v>-0.0001378704302607164</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0.0002979789283906423</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>4722.930700892472</v>
-      </c>
-      <c r="R86" t="n">
-        <v>0.8261700000000001</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>1.000016289416351</v>
-      </c>
-      <c r="B87" t="n">
-        <v>43.72651283937876</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-1.307272679706673e-05</v>
-      </c>
-      <c r="D87" t="n">
-        <v>-0.1466670853312088</v>
-      </c>
-      <c r="E87" t="n">
-        <v>7.263934152448116e-07</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.0009309069276745787</v>
-      </c>
-      <c r="G87" t="n">
-        <v>7.179009478653528e-07</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.0001429170580253682</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.04079809989297863</v>
-      </c>
-      <c r="J87" t="n">
-        <v>2.542388355446312e-05</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-0.0006966000469014765</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0.0008828476053650828</v>
-      </c>
-      <c r="M87" t="n">
-        <v>1.648474809887293e-05</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.986246461302858e-05</v>
-      </c>
-      <c r="O87" t="n">
-        <v>-0.0001059784171587739</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0.0002895407071081298</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>4726.556074914351</v>
-      </c>
-      <c r="R87" t="n">
-        <v>0.83999</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>1.000023628167641</v>
-      </c>
-      <c r="B88" t="n">
-        <v>43.80778014275886</v>
-      </c>
-      <c r="C88" t="n">
-        <v>-2.332557865592163e-06</v>
-      </c>
-      <c r="D88" t="n">
-        <v>-0.1507918425853989</v>
-      </c>
-      <c r="E88" t="n">
-        <v>6.892991416719697e-07</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.0008510923159614723</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-1.295025972236547e-07</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0.0001469933780646277</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0.0373349655524978</v>
-      </c>
-      <c r="J88" t="n">
-        <v>-8.501609093630871e-06</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-0.0006476988226694185</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0.0008853575109808381</v>
-      </c>
-      <c r="M88" t="n">
-        <v>2.337524321870342e-05</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-3.931677864757322e-05</v>
-      </c>
-      <c r="O88" t="n">
-        <v>-8.025870897602131e-05</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0.0002892792688173876</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>4729.991483318037</v>
-      </c>
-      <c r="R88" t="n">
-        <v>0.8538100000000001</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>1.00003080294691</v>
-      </c>
-      <c r="B89" t="n">
-        <v>43.88371462083859</v>
-      </c>
-      <c r="C89" t="n">
-        <v>6.322262580266262e-06</v>
-      </c>
-      <c r="D89" t="n">
-        <v>-0.1551103039368916</v>
-      </c>
-      <c r="E89" t="n">
-        <v>6.659179424881322e-07</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.0007890247825364065</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-9.266467886337603e-07</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.0001505092227655229</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0.03464803933911121</v>
-      </c>
-      <c r="J89" t="n">
-        <v>-4.060551119249199e-05</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-0.0005974237489990634</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0.0008928045230860375</v>
-      </c>
-      <c r="M89" t="n">
-        <v>2.911749472609856e-05</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.879438753207535e-05</v>
-      </c>
-      <c r="O89" t="n">
-        <v>-6.17455315663421e-05</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0.0002851711577837181</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>4733.209628983966</v>
-      </c>
-      <c r="R89" t="n">
-        <v>0.8676299999999999</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>1.000038538441693</v>
-      </c>
-      <c r="B90" t="n">
-        <v>43.95417466141753</v>
-      </c>
-      <c r="C90" t="n">
-        <v>9.877313924483558e-06</v>
-      </c>
-      <c r="D90" t="n">
-        <v>-0.1595440305820903</v>
-      </c>
-      <c r="E90" t="n">
-        <v>6.602146634376792e-07</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0.0007218288251903451</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-1.341400615507108e-06</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0.0001522431466404926</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0.03173150473374454</v>
-      </c>
-      <c r="J90" t="n">
-        <v>-5.644916856588174e-05</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-0.0005442442799080681</v>
-      </c>
-      <c r="L90" t="n">
-        <v>0.0008904581152295223</v>
-      </c>
-      <c r="M90" t="n">
-        <v>3.387318669084999e-05</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-3.813555475830212e-05</v>
-      </c>
-      <c r="O90" t="n">
-        <v>-4.827068236037851e-05</v>
-      </c>
-      <c r="P90" t="n">
-        <v>0.000275819789117768</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>4736.200723229032</v>
-      </c>
-      <c r="R90" t="n">
-        <v>0.88145</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>1.000047639820548</v>
-      </c>
-      <c r="B91" t="n">
-        <v>44.01892062104243</v>
-      </c>
-      <c r="C91" t="n">
-        <v>3.963366767078769e-06</v>
-      </c>
-      <c r="D91" t="n">
-        <v>-0.1640127142850511</v>
-      </c>
-      <c r="E91" t="n">
-        <v>7.13363577350705e-07</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.0006513402872108632</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-1.248498192914374e-06</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0.0001611904757437441</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0.02866080222472695</v>
-      </c>
-      <c r="J91" t="n">
-        <v>-5.055692381248487e-05</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-0.0004866708031049507</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0.0009706789942300832</v>
-      </c>
-      <c r="M91" t="n">
-        <v>3.753662227332293e-05</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-3.718528076303567e-05</v>
-      </c>
-      <c r="O91" t="n">
-        <v>-4.00651763976011e-05</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0.0002701935024895367</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>4738.949746047539</v>
-      </c>
-      <c r="R91" t="n">
-        <v>0.8952700000000001</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>1.000057152276115</v>
-      </c>
-      <c r="B92" t="n">
-        <v>44.07792608677649</v>
-      </c>
-      <c r="C92" t="n">
-        <v>7.476800331922215e-08</v>
-      </c>
-      <c r="D92" t="n">
-        <v>-0.1684287676849829</v>
-      </c>
-      <c r="E92" t="n">
-        <v>6.298611532202442e-07</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.0005767144962990484</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-1.059486337385334e-06</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0.0001573794284683546</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0.02537215577807344</v>
-      </c>
-      <c r="J92" t="n">
-        <v>-3.978414196695559e-05</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-0.0004241920203238837</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0.0008849922668303839</v>
-      </c>
-      <c r="M92" t="n">
-        <v>4.061059804482713e-05</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.58787680939611e-05</v>
-      </c>
-      <c r="O92" t="n">
-        <v>-3.42134206973947e-05</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0.000255296434226077</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>4741.454856576948</v>
-      </c>
-      <c r="R92" t="n">
-        <v>0.90922</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>1.000068132668272</v>
-      </c>
-      <c r="B93" t="n">
-        <v>44.1302946352355</v>
-      </c>
-      <c r="C93" t="n">
-        <v>5.792073702286574e-06</v>
-      </c>
-      <c r="D93" t="n">
-        <v>-0.172590363124132</v>
-      </c>
-      <c r="E93" t="n">
-        <v>6.042037283487272e-07</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.0005019383273510872</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-5.640980501074993e-07</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0.0001621602453926459</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.02208919506015309</v>
-      </c>
-      <c r="J93" t="n">
-        <v>-1.513884785638753e-05</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-0.0003597021993745142</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0.000887272804071271</v>
-      </c>
-      <c r="M93" t="n">
-        <v>4.088952686543337e-05</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.480239798944995e-05</v>
-      </c>
-      <c r="O93" t="n">
-        <v>-2.764636598181672e-05</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0.0002481528986203369</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>4743.675009215097</v>
-      </c>
-      <c r="R93" t="n">
-        <v>0.92317</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>1.000075636681573</v>
-      </c>
-      <c r="B94" t="n">
-        <v>44.17575325841837</v>
-      </c>
-      <c r="C94" t="n">
-        <v>1.511123369437092e-05</v>
-      </c>
-      <c r="D94" t="n">
-        <v>-0.1762826861327702</v>
-      </c>
-      <c r="E94" t="n">
-        <v>5.936932887732054e-07</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.0004323149505487845</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-7.54636025398378e-09</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.0001646960451231781</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.01902421112412058</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1.225176731540409e-05</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-0.0002949165338217218</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0.0008909777279300284</v>
-      </c>
-      <c r="M94" t="n">
-        <v>3.783901149194473e-05</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-3.390618715354859e-05</v>
-      </c>
-      <c r="O94" t="n">
-        <v>-2.039404568366427e-05</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0.0002378098183455679</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>4745.607263414128</v>
-      </c>
-      <c r="R94" t="n">
-        <v>0.9371200000000001</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>1.000082738791423</v>
-      </c>
-      <c r="B95" t="n">
-        <v>44.21395065709844</v>
-      </c>
-      <c r="C95" t="n">
-        <v>2.174662599026593e-05</v>
-      </c>
-      <c r="D95" t="n">
-        <v>-0.1794397732166291</v>
-      </c>
-      <c r="E95" t="n">
-        <v>6.000716795889232e-07</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.000348435888500109</v>
-      </c>
-      <c r="G95" t="n">
-        <v>5.102502555053888e-07</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0.0001654986797677832</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.01531128994365413</v>
-      </c>
-      <c r="J95" t="n">
-        <v>3.783586812021429e-05</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-0.0002299156295783645</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0.0008892416267725413</v>
-      </c>
-      <c r="M95" t="n">
-        <v>3.155341608691186e-05</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.310981558395125e-05</v>
-      </c>
-      <c r="O95" t="n">
-        <v>-6.899094064576725e-06</v>
-      </c>
-      <c r="P95" t="n">
-        <v>0.0002243749589498927</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>4747.22992665736</v>
-      </c>
-      <c r="R95" t="n">
-        <v>0.9510700000000001</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>1.000090536062378</v>
-      </c>
-      <c r="B96" t="n">
-        <v>44.24446576112577</v>
-      </c>
-      <c r="C96" t="n">
-        <v>1.926477412718686e-05</v>
-      </c>
-      <c r="D96" t="n">
-        <v>-0.18214439255023</v>
-      </c>
-      <c r="E96" t="n">
-        <v>6.664459366207358e-07</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0.0002557520892923833</v>
-      </c>
-      <c r="G96" t="n">
-        <v>1.046791306544118e-06</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0.0001761140694950244</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0.01119022243644097</v>
-      </c>
-      <c r="J96" t="n">
-        <v>6.429678940487287e-05</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-0.0001635804483054656</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0.000968857789148798</v>
-      </c>
-      <c r="M96" t="n">
-        <v>2.289176216346718e-05</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-3.238810553899416e-05</v>
-      </c>
-      <c r="O96" t="n">
-        <v>1.067395375304979e-05</v>
-      </c>
-      <c r="P96" t="n">
-        <v>0.0002187307605357076</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>4748.521385183447</v>
-      </c>
-      <c r="R96" t="n">
-        <v>0.9650200000000001</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>1.000096460698314</v>
-      </c>
-      <c r="B97" t="n">
-        <v>44.26678186593026</v>
-      </c>
-      <c r="C97" t="n">
-        <v>1.035882889003591e-05</v>
-      </c>
-      <c r="D97" t="n">
-        <v>-0.1844857266464091</v>
-      </c>
-      <c r="E97" t="n">
-        <v>5.939478775829033e-07</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.0001534003121297513</v>
-      </c>
-      <c r="G97" t="n">
-        <v>1.195509915004016e-06</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0.000176049974907487</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0.006626915137533921</v>
-      </c>
-      <c r="J97" t="n">
-        <v>7.474052758061639e-05</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-9.463087118770625e-05</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0.0008893830297079844</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.324251818622354e-05</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.141050021155113e-05</v>
-      </c>
-      <c r="O97" t="n">
-        <v>3.366038367351874e-05</v>
-      </c>
-      <c r="P97" t="n">
-        <v>0.0002069024640857652</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>4749.463021166238</v>
-      </c>
-      <c r="R97" t="n">
-        <v>0.97901</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>1.000098102855177</v>
-      </c>
-      <c r="B98" t="n">
-        <v>44.28031710653723</v>
-      </c>
-      <c r="C98" t="n">
-        <v>-1.630621551507891e-06</v>
-      </c>
-      <c r="D98" t="n">
-        <v>-0.1865455467963664</v>
-      </c>
-      <c r="E98" t="n">
-        <v>5.739278632145111e-07</v>
-      </c>
-      <c r="F98" t="n">
-        <v>5.926713159429681e-05</v>
-      </c>
-      <c r="G98" t="n">
-        <v>8.493705565287809e-07</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0.0001831857572079097</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0.002439762105406171</v>
-      </c>
-      <c r="J98" t="n">
-        <v>6.415273500482549e-05</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-2.305057813806314e-05</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0.0008912617940889806</v>
-      </c>
-      <c r="M98" t="n">
-        <v>3.898238832806188e-06</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.02801954607891e-05</v>
-      </c>
-      <c r="O98" t="n">
-        <v>5.422632700935105e-05</v>
-      </c>
-      <c r="P98" t="n">
-        <v>0.0002032883592398059</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>4750.033728473872</v>
-      </c>
-      <c r="R98" t="n">
-        <v>0.993</v>
+        <v>0.79895</v>
       </c>
     </row>
   </sheetData>
